--- a/hypothesis/Jayalakshmi Agrotech - case study/Jayalaxmi Agro Case Data .xlsx
+++ b/hypothesis/Jayalakshmi Agrotech - case study/Jayalaxmi Agro Case Data .xlsx
@@ -5,27 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumarsg\OneDrive - Adobe Systems Incorporated\Personal\BIA\Module - 1\M1 Prof Dinesh Slides, cases and data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumarsg\OneDrive - Adobe Systems Incorporated\Personal\BIA\data-science\hypothesis\Jayalakshmi Agrotech - case study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4F1BA32827E65115D2E350A8F7D6FC4BC269056B" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_4F1BA32827E65115D2E350A8F7D6FC4BC269056B" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F3BC2F1D-7E6E-4DB4-8DB0-EA88BC679242}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="App Usage Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Belagavi_weather" sheetId="2" r:id="rId3"/>
-    <sheet name="Dharwad_weather" sheetId="3" r:id="rId4"/>
-    <sheet name="Disease_index" sheetId="4" r:id="rId5"/>
+    <sheet name="Provkem1" sheetId="7" r:id="rId3"/>
+    <sheet name="Problem -4" sheetId="6" r:id="rId4"/>
+    <sheet name="Belagavi_weather" sheetId="2" r:id="rId5"/>
+    <sheet name="Dharwad_weather" sheetId="3" r:id="rId6"/>
+    <sheet name="Disease_index" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Belagavi_weather!$A$1:$N$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dharwad_weather!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Belagavi_weather!$A$1:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dharwad_weather!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>Year</t>
   </si>
@@ -339,6 +341,39 @@
   <si>
     <t>Sum of D11</t>
   </si>
+  <si>
+    <t>4.	Farmers use apps to access information throughout the month. Using the data, check whether app usage is same or different across the four weeks of a month. Anand claims that app usage picked up after January 2016; so, test this hypothesis using data from January-2016 – May 2018.</t>
+  </si>
+  <si>
+    <t>Week information is not available</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>App usage is same across month</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>App Usage is different across months</t>
+  </si>
+  <si>
+    <t>Usage picked up after January 2016</t>
+  </si>
+  <si>
+    <t>Usage pickedup after Jan 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usage did not pickup </t>
+  </si>
+  <si>
+    <t>Right tailed</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,8 +449,15 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +480,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -707,11 +754,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -828,8 +876,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -2616,7 +2670,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:K4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="63">
     <pivotField numFmtId="164" showAll="0"/>
@@ -3106,11 +3160,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3550,210 +3604,210 @@
         <v>12</v>
       </c>
       <c r="E3" s="38">
-        <f t="shared" ref="E3:E25" si="1">D3*100</f>
+        <f>D3*100</f>
         <v>1200</v>
       </c>
       <c r="F3" s="13">
         <v>12.741312741312742</v>
       </c>
       <c r="G3" s="39">
-        <f t="shared" ref="G3:G25" si="2">F3*100</f>
+        <f t="shared" ref="G3:G25" si="1">F3*100</f>
         <v>1274.1312741312743</v>
       </c>
       <c r="H3" s="13">
         <v>5.4054054054054053</v>
       </c>
       <c r="I3" s="39">
-        <f t="shared" ref="I3:I25" si="3">H3*100</f>
+        <f t="shared" ref="I3:I25" si="2">H3*100</f>
         <v>540.54054054054052</v>
       </c>
       <c r="J3" s="13">
         <v>9.6525096525096519</v>
       </c>
       <c r="K3" s="39">
-        <f t="shared" ref="K3:K25" si="4">J3*100</f>
+        <f t="shared" ref="K3:K25" si="3">J3*100</f>
         <v>965.25096525096524</v>
       </c>
       <c r="L3" s="13">
         <v>6.1776061776061777</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M25" si="5">L3*100</f>
+        <f t="shared" ref="M3:M25" si="4">L3*100</f>
         <v>617.76061776061772</v>
       </c>
       <c r="N3" s="13">
         <v>1.9305019305019304</v>
       </c>
       <c r="O3" s="39">
-        <f t="shared" ref="O3:O25" si="6">N3*100</f>
+        <f t="shared" ref="O3:O25" si="5">N3*100</f>
         <v>193.05019305019303</v>
       </c>
       <c r="P3" s="13">
         <v>1.5444015444015444</v>
       </c>
       <c r="Q3" s="39">
-        <f t="shared" ref="Q3:Q25" si="7">P3*100</f>
+        <f t="shared" ref="Q3:Q25" si="6">P3*100</f>
         <v>154.44015444015443</v>
       </c>
       <c r="R3" s="13">
         <v>1.9305019305019304</v>
       </c>
       <c r="S3" s="39">
-        <f t="shared" ref="S3:S25" si="8">R3*100</f>
+        <f t="shared" ref="S3:S25" si="7">R3*100</f>
         <v>193.05019305019303</v>
       </c>
       <c r="T3" s="13">
         <v>3.0888030888030888</v>
       </c>
       <c r="U3" s="39">
-        <f t="shared" ref="U3:U25" si="9">T3*100</f>
+        <f t="shared" ref="U3:U25" si="8">T3*100</f>
         <v>308.88030888030886</v>
       </c>
       <c r="V3" s="13">
         <v>0.77220077220077221</v>
       </c>
       <c r="W3" s="39">
-        <f t="shared" ref="W3:W25" si="10">V3*100</f>
+        <f t="shared" ref="W3:W25" si="9">V3*100</f>
         <v>77.220077220077215</v>
       </c>
       <c r="X3" s="13">
         <v>2.3166023166023164</v>
       </c>
       <c r="Y3" s="39">
-        <f t="shared" ref="Y3:Y25" si="11">X3*100</f>
+        <f t="shared" ref="Y3:Y25" si="10">X3*100</f>
         <v>231.66023166023163</v>
       </c>
       <c r="Z3" s="13">
         <v>3.8610038610038608</v>
       </c>
       <c r="AA3" s="39">
-        <f t="shared" ref="AA3:AA25" si="12">Z3*100</f>
+        <f t="shared" ref="AA3:AA25" si="11">Z3*100</f>
         <v>386.10038610038606</v>
       </c>
       <c r="AB3" s="13">
         <v>7.3359073359073363</v>
       </c>
       <c r="AC3" s="39">
-        <f t="shared" ref="AC3:AC25" si="13">AB3*100</f>
+        <f t="shared" ref="AC3:AC25" si="12">AB3*100</f>
         <v>733.59073359073363</v>
       </c>
       <c r="AD3" s="13">
         <v>2.7027027027027026</v>
       </c>
       <c r="AE3" s="39">
-        <f t="shared" ref="AE3:AE25" si="14">AD3*100</f>
+        <f t="shared" ref="AE3:AE25" si="13">AD3*100</f>
         <v>270.27027027027026</v>
       </c>
       <c r="AF3" s="13">
         <v>0.77220077220077221</v>
       </c>
       <c r="AG3" s="39">
-        <f t="shared" ref="AG3:AG25" si="15">AF3*100</f>
+        <f t="shared" ref="AG3:AG25" si="14">AF3*100</f>
         <v>77.220077220077215</v>
       </c>
       <c r="AH3" s="13">
         <v>3.0888030888030888</v>
       </c>
       <c r="AI3" s="39">
-        <f t="shared" ref="AI3:AI25" si="16">AH3*100</f>
+        <f t="shared" ref="AI3:AI25" si="15">AH3*100</f>
         <v>308.88030888030886</v>
       </c>
       <c r="AJ3" s="13">
         <v>8.4942084942084932</v>
       </c>
       <c r="AK3" s="39">
-        <f t="shared" ref="AK3:AK25" si="17">AJ3*100</f>
+        <f t="shared" ref="AK3:AK25" si="16">AJ3*100</f>
         <v>849.42084942084932</v>
       </c>
       <c r="AL3" s="13">
         <v>6.9498069498069501</v>
       </c>
       <c r="AM3" s="39">
-        <f t="shared" ref="AM3:AM25" si="18">AL3*100</f>
+        <f t="shared" ref="AM3:AM25" si="17">AL3*100</f>
         <v>694.98069498069503</v>
       </c>
       <c r="AN3" s="13">
         <v>9.2664092664092657</v>
       </c>
       <c r="AO3" s="39">
-        <f t="shared" ref="AO3:AO25" si="19">AN3*100</f>
+        <f t="shared" ref="AO3:AO25" si="18">AN3*100</f>
         <v>926.64092664092652</v>
       </c>
       <c r="AP3" s="13">
         <v>5.4054054054054053</v>
       </c>
       <c r="AQ3" s="39">
-        <f t="shared" ref="AQ3:AQ25" si="20">AP3*100</f>
+        <f t="shared" ref="AQ3:AQ25" si="19">AP3*100</f>
         <v>540.54054054054052</v>
       </c>
       <c r="AR3" s="13">
         <v>6.1776061776061777</v>
       </c>
       <c r="AS3" s="39">
-        <f t="shared" ref="AS3:AS25" si="21">AR3*100</f>
+        <f t="shared" ref="AS3:AS25" si="20">AR3*100</f>
         <v>617.76061776061772</v>
       </c>
       <c r="AT3" s="13">
         <v>5.019305019305019</v>
       </c>
       <c r="AU3" s="39">
-        <f t="shared" ref="AU3:AU25" si="22">AT3*100</f>
+        <f t="shared" ref="AU3:AU25" si="21">AT3*100</f>
         <v>501.93050193050192</v>
       </c>
       <c r="AV3" s="13">
         <v>3.0888030888030888</v>
       </c>
       <c r="AW3" s="39">
-        <f t="shared" ref="AW3:AW25" si="23">AV3*100</f>
+        <f t="shared" ref="AW3:AW25" si="22">AV3*100</f>
         <v>308.88030888030886</v>
       </c>
       <c r="AX3" s="13">
         <v>3.0888030888030888</v>
       </c>
       <c r="AY3" s="39">
-        <f t="shared" ref="AY3:AY25" si="24">AX3*100</f>
+        <f t="shared" ref="AY3:AY25" si="23">AX3*100</f>
         <v>308.88030888030886</v>
       </c>
       <c r="AZ3" s="13">
         <v>4.2471042471042466</v>
       </c>
       <c r="BA3" s="39">
-        <f t="shared" ref="BA3:BA25" si="25">AZ3*100</f>
+        <f t="shared" ref="BA3:BA25" si="24">AZ3*100</f>
         <v>424.71042471042466</v>
       </c>
       <c r="BB3" s="13">
         <v>2.7027027027027026</v>
       </c>
       <c r="BC3" s="39">
-        <f t="shared" ref="BC3:BC25" si="26">BB3*100</f>
+        <f t="shared" ref="BC3:BC25" si="25">BB3*100</f>
         <v>270.27027027027026</v>
       </c>
       <c r="BD3" s="13">
         <v>3.8610038610038608</v>
       </c>
       <c r="BE3" s="39">
-        <f t="shared" ref="BE3:BE25" si="27">BD3*100</f>
+        <f t="shared" ref="BE3:BE25" si="26">BD3*100</f>
         <v>386.10038610038606</v>
       </c>
       <c r="BF3" s="13">
         <v>3.0888030888030888</v>
       </c>
       <c r="BG3" s="39">
-        <f t="shared" ref="BG3:BG25" si="28">BF3*100</f>
+        <f t="shared" ref="BG3:BG25" si="27">BF3*100</f>
         <v>308.88030888030886</v>
       </c>
       <c r="BH3" s="13">
         <v>4.2471042471042466</v>
       </c>
       <c r="BI3" s="56">
-        <f t="shared" ref="BI3:BI25" si="29">BH3*100</f>
+        <f t="shared" ref="BI3:BI25" si="28">BH3*100</f>
         <v>424.71042471042466</v>
       </c>
       <c r="BJ3" s="15">
         <v>4.6332046332046328</v>
       </c>
       <c r="BK3" s="58">
-        <f t="shared" ref="BK3:BK25" si="30">BJ3*100</f>
+        <f t="shared" ref="BK3:BK25" si="29">BJ3*100</f>
         <v>463.32046332046326</v>
       </c>
     </row>
@@ -3772,210 +3826,210 @@
         <v>42</v>
       </c>
       <c r="E4" s="38">
-        <f t="shared" si="1"/>
+        <f>D4*100</f>
         <v>4200</v>
       </c>
       <c r="F4" s="13">
         <v>80.341880341880341</v>
       </c>
       <c r="G4" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8034.1880341880342</v>
       </c>
       <c r="H4" s="13">
         <v>76.923076923076934</v>
       </c>
       <c r="I4" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7692.3076923076933</v>
       </c>
       <c r="J4" s="13">
         <v>56.410256410256409</v>
       </c>
       <c r="K4" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5641.0256410256407</v>
       </c>
       <c r="L4" s="13">
         <v>42.735042735042732</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4273.5042735042734</v>
       </c>
       <c r="N4" s="13">
         <v>20.512820512820511</v>
       </c>
       <c r="O4" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2051.2820512820513</v>
       </c>
       <c r="P4" s="13">
         <v>12.820512820512819</v>
       </c>
       <c r="Q4" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1282.051282051282</v>
       </c>
       <c r="R4" s="13">
         <v>22.222222222222221</v>
       </c>
       <c r="S4" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2222.2222222222222</v>
       </c>
       <c r="T4" s="13">
         <v>12.820512820512819</v>
       </c>
       <c r="U4" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1282.051282051282</v>
       </c>
       <c r="V4" s="13">
         <v>14.529914529914532</v>
       </c>
       <c r="W4" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1452.9914529914531</v>
       </c>
       <c r="X4" s="13">
         <v>26.495726495726498</v>
       </c>
       <c r="Y4" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2649.5726495726499</v>
       </c>
       <c r="Z4" s="13">
         <v>18.803418803418804</v>
       </c>
       <c r="AA4" s="39">
+        <f t="shared" si="11"/>
+        <v>1880.3418803418804</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>18.803418803418804</v>
+      </c>
+      <c r="AC4" s="39">
         <f t="shared" si="12"/>
         <v>1880.3418803418804</v>
       </c>
-      <c r="AB4" s="13">
-        <v>18.803418803418804</v>
-      </c>
-      <c r="AC4" s="39">
-        <f t="shared" si="13"/>
-        <v>1880.3418803418804</v>
-      </c>
       <c r="AD4" s="13">
         <v>17.948717948717949</v>
       </c>
       <c r="AE4" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1794.8717948717949</v>
       </c>
       <c r="AF4" s="13">
         <v>14.529914529914532</v>
       </c>
       <c r="AG4" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1452.9914529914531</v>
       </c>
       <c r="AH4" s="13">
         <v>22.222222222222221</v>
       </c>
       <c r="AI4" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2222.2222222222222</v>
       </c>
       <c r="AJ4" s="13">
         <v>60.683760683760681</v>
       </c>
       <c r="AK4" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6068.3760683760684</v>
       </c>
       <c r="AL4" s="13">
         <v>48.717948717948715</v>
       </c>
       <c r="AM4" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4871.7948717948711</v>
       </c>
       <c r="AN4" s="13">
         <v>63.247863247863243</v>
       </c>
       <c r="AO4" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6324.7863247863243</v>
       </c>
       <c r="AP4" s="13">
         <v>44.444444444444443</v>
       </c>
       <c r="AQ4" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4444.4444444444443</v>
       </c>
       <c r="AR4" s="13">
         <v>76.923076923076934</v>
       </c>
       <c r="AS4" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7692.3076923076933</v>
       </c>
       <c r="AT4" s="13">
         <v>56.410256410256409</v>
       </c>
       <c r="AU4" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5641.0256410256407</v>
       </c>
       <c r="AV4" s="13">
         <v>34.188034188034187</v>
       </c>
       <c r="AW4" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3418.8034188034189</v>
       </c>
       <c r="AX4" s="13">
         <v>29.059829059829063</v>
       </c>
       <c r="AY4" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2905.9829059829062</v>
       </c>
       <c r="AZ4" s="13">
         <v>37.606837606837608</v>
       </c>
       <c r="BA4" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3760.6837606837607</v>
       </c>
       <c r="BB4" s="13">
         <v>42.735042735042732</v>
       </c>
       <c r="BC4" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4273.5042735042734</v>
       </c>
       <c r="BD4" s="13">
         <v>36.752136752136757</v>
       </c>
       <c r="BE4" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3675.2136752136757</v>
       </c>
       <c r="BF4" s="13">
         <v>32.478632478632477</v>
       </c>
       <c r="BG4" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3247.8632478632476</v>
       </c>
       <c r="BH4" s="13">
         <v>47.008547008547005</v>
       </c>
       <c r="BI4" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4700.8547008547002</v>
       </c>
       <c r="BJ4" s="15">
         <v>50.427350427350426</v>
       </c>
       <c r="BK4" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>5042.735042735043</v>
       </c>
     </row>
@@ -3994,210 +4048,210 @@
         <v>47</v>
       </c>
       <c r="E5" s="38">
-        <f t="shared" si="1"/>
+        <f>D5*100</f>
         <v>4700</v>
       </c>
       <c r="F5" s="13">
         <v>20.680628272251308</v>
       </c>
       <c r="G5" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2068.0628272251306</v>
       </c>
       <c r="H5" s="13">
         <v>20.157068062827225</v>
       </c>
       <c r="I5" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2015.7068062827225</v>
       </c>
       <c r="J5" s="13">
         <v>9.9476439790575917</v>
       </c>
       <c r="K5" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>994.76439790575921</v>
       </c>
       <c r="L5" s="13">
         <v>11.518324607329843</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1151.8324607329844</v>
       </c>
       <c r="N5" s="13">
         <v>7.5916230366492146</v>
       </c>
       <c r="O5" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>759.16230366492141</v>
       </c>
       <c r="P5" s="13">
         <v>2.8795811518324608</v>
       </c>
       <c r="Q5" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>287.95811518324609</v>
       </c>
       <c r="R5" s="13">
         <v>5.7591623036649215</v>
       </c>
       <c r="S5" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>575.91623036649219</v>
       </c>
       <c r="T5" s="13">
         <v>6.0209424083769632</v>
       </c>
       <c r="U5" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>602.09424083769636</v>
       </c>
       <c r="V5" s="13">
         <v>5.2356020942408374</v>
       </c>
       <c r="W5" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>523.56020942408372</v>
       </c>
       <c r="X5" s="13">
         <v>10.732984293193718</v>
       </c>
       <c r="Y5" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1073.2984293193717</v>
       </c>
       <c r="Z5" s="13">
         <v>5.7591623036649215</v>
       </c>
       <c r="AA5" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>575.91623036649219</v>
       </c>
       <c r="AB5" s="13">
         <v>12.30366492146597</v>
       </c>
       <c r="AC5" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1230.366492146597</v>
       </c>
       <c r="AD5" s="13">
         <v>7.8534031413612562</v>
       </c>
       <c r="AE5" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>785.34031413612558</v>
       </c>
       <c r="AF5" s="13">
         <v>5.2356020942408374</v>
       </c>
       <c r="AG5" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>523.56020942408372</v>
       </c>
       <c r="AH5" s="13">
         <v>5.4973821989528799</v>
       </c>
       <c r="AI5" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>549.73821989528801</v>
       </c>
       <c r="AJ5" s="13">
         <v>15.968586387434556</v>
       </c>
       <c r="AK5" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1596.8586387434557</v>
       </c>
       <c r="AL5" s="13">
         <v>11.2565445026178</v>
       </c>
       <c r="AM5" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1125.6544502617799</v>
       </c>
       <c r="AN5" s="13">
         <v>14.659685863874344</v>
       </c>
       <c r="AO5" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1465.9685863874345</v>
       </c>
       <c r="AP5" s="13">
         <v>7.3298429319371721</v>
       </c>
       <c r="AQ5" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>732.98429319371724</v>
       </c>
       <c r="AR5" s="13">
         <v>13.350785340314136</v>
       </c>
       <c r="AS5" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1335.0785340314137</v>
       </c>
       <c r="AT5" s="13">
         <v>12.041884816753926</v>
       </c>
       <c r="AU5" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1204.1884816753927</v>
       </c>
       <c r="AV5" s="13">
         <v>5.2356020942408374</v>
       </c>
       <c r="AW5" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>523.56020942408372</v>
       </c>
       <c r="AX5" s="13">
         <v>4.4502617801047117</v>
       </c>
       <c r="AY5" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>445.0261780104712</v>
       </c>
       <c r="AZ5" s="13">
         <v>5.7591623036649215</v>
       </c>
       <c r="BA5" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>575.91623036649219</v>
       </c>
       <c r="BB5" s="13">
         <v>6.5445026178010473</v>
       </c>
       <c r="BC5" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>654.45026178010471</v>
       </c>
       <c r="BD5" s="13">
         <v>8.3769633507853403</v>
       </c>
       <c r="BE5" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>837.69633507853405</v>
       </c>
       <c r="BF5" s="13">
         <v>4.4502617801047117</v>
       </c>
       <c r="BG5" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>445.0261780104712</v>
       </c>
       <c r="BH5" s="13">
         <v>5.4973821989528799</v>
       </c>
       <c r="BI5" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>549.73821989528801</v>
       </c>
       <c r="BJ5" s="15">
         <v>7.5916230366492146</v>
       </c>
       <c r="BK5" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>759.16230366492141</v>
       </c>
     </row>
@@ -4216,210 +4270,210 @@
         <v>107</v>
       </c>
       <c r="E6" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E3:E25" si="30">D6*100</f>
         <v>10700</v>
       </c>
       <c r="F6" s="13">
         <v>70.229007633587784</v>
       </c>
       <c r="G6" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7022.900763358778</v>
       </c>
       <c r="H6" s="13">
         <v>72.51908396946564</v>
       </c>
       <c r="I6" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7251.9083969465637</v>
       </c>
       <c r="J6" s="13">
         <v>50</v>
       </c>
       <c r="K6" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="L6" s="13">
         <v>57.633587786259547</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5763.358778625955</v>
       </c>
       <c r="N6" s="13">
         <v>22.137404580152673</v>
       </c>
       <c r="O6" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2213.7404580152674</v>
       </c>
       <c r="P6" s="13">
         <v>14.122137404580155</v>
       </c>
       <c r="Q6" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1412.2137404580155</v>
       </c>
       <c r="R6" s="13">
         <v>27.480916030534353</v>
       </c>
       <c r="S6" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2748.0916030534354</v>
       </c>
       <c r="T6" s="13">
         <v>15.648854961832063</v>
       </c>
       <c r="U6" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1564.8854961832062</v>
       </c>
       <c r="V6" s="13">
         <v>30.534351145038169</v>
       </c>
       <c r="W6" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3053.4351145038167</v>
       </c>
       <c r="X6" s="13">
         <v>28.244274809160309</v>
       </c>
       <c r="Y6" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2824.4274809160311</v>
       </c>
       <c r="Z6" s="13">
         <v>16.030534351145036</v>
       </c>
       <c r="AA6" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1603.0534351145036</v>
       </c>
       <c r="AB6" s="13">
         <v>29.389312977099237</v>
       </c>
       <c r="AC6" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2938.9312977099239</v>
       </c>
       <c r="AD6" s="13">
         <v>20.229007633587788</v>
       </c>
       <c r="AE6" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2022.9007633587787</v>
       </c>
       <c r="AF6" s="13">
         <v>11.83206106870229</v>
       </c>
       <c r="AG6" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1183.206106870229</v>
       </c>
       <c r="AH6" s="13">
         <v>16.412213740458014</v>
       </c>
       <c r="AI6" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1641.2213740458014</v>
       </c>
       <c r="AJ6" s="13">
         <v>41.984732824427482</v>
       </c>
       <c r="AK6" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4198.4732824427483</v>
       </c>
       <c r="AL6" s="13">
         <v>48.473282442748086</v>
       </c>
       <c r="AM6" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4847.3282442748086</v>
       </c>
       <c r="AN6" s="13">
         <v>64.885496183206101</v>
       </c>
       <c r="AO6" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6488.5496183206105</v>
       </c>
       <c r="AP6" s="13">
         <v>45.419847328244273</v>
       </c>
       <c r="AQ6" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4541.9847328244277</v>
       </c>
       <c r="AR6" s="13">
         <v>63.358778625954194</v>
       </c>
       <c r="AS6" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6335.8778625954192</v>
       </c>
       <c r="AT6" s="13">
         <v>42.366412213740453</v>
       </c>
       <c r="AU6" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4236.641221374045</v>
       </c>
       <c r="AV6" s="13">
         <v>31.297709923664126</v>
       </c>
       <c r="AW6" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3129.7709923664124</v>
       </c>
       <c r="AX6" s="13">
         <v>28.625954198473281</v>
       </c>
       <c r="AY6" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2862.5954198473282</v>
       </c>
       <c r="AZ6" s="13">
         <v>27.862595419847331</v>
       </c>
       <c r="BA6" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2786.259541984733</v>
       </c>
       <c r="BB6" s="13">
         <v>32.824427480916029</v>
       </c>
       <c r="BC6" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3282.4427480916029</v>
       </c>
       <c r="BD6" s="13">
         <v>29.007633587786259</v>
       </c>
       <c r="BE6" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2900.7633587786258</v>
       </c>
       <c r="BF6" s="13">
         <v>22.519083969465647</v>
       </c>
       <c r="BG6" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2251.9083969465646</v>
       </c>
       <c r="BH6" s="13">
         <v>32.44274809160305</v>
       </c>
       <c r="BI6" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3244.2748091603053</v>
       </c>
       <c r="BJ6" s="15">
         <v>32.824427480916029</v>
       </c>
       <c r="BK6" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3282.4427480916029</v>
       </c>
     </row>
@@ -4438,210 +4492,210 @@
         <v>156</v>
       </c>
       <c r="E7" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>15600</v>
       </c>
       <c r="F7" s="13">
         <v>145.3488372093023</v>
       </c>
       <c r="G7" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14534.883720930231</v>
       </c>
       <c r="H7" s="13">
         <v>118.6046511627907</v>
       </c>
       <c r="I7" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11860.465116279071</v>
       </c>
       <c r="J7" s="13">
         <v>75</v>
       </c>
       <c r="K7" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7500</v>
       </c>
       <c r="L7" s="13">
         <v>114.53488372093024</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11453.488372093025</v>
       </c>
       <c r="N7" s="13">
         <v>43.02325581395349</v>
       </c>
       <c r="O7" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4302.3255813953492</v>
       </c>
       <c r="P7" s="13">
         <v>29.069767441860467</v>
       </c>
       <c r="Q7" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2906.9767441860467</v>
       </c>
       <c r="R7" s="13">
         <v>46.511627906976742</v>
       </c>
       <c r="S7" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4651.1627906976737</v>
       </c>
       <c r="T7" s="13">
         <v>31.976744186046513</v>
       </c>
       <c r="U7" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3197.6744186046512</v>
       </c>
       <c r="V7" s="13">
         <v>38.372093023255815</v>
       </c>
       <c r="W7" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3837.2093023255816</v>
       </c>
       <c r="X7" s="13">
         <v>60.465116279069761</v>
       </c>
       <c r="Y7" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6046.5116279069762</v>
       </c>
       <c r="Z7" s="13">
         <v>45.930232558139537</v>
       </c>
       <c r="AA7" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4593.0232558139533</v>
       </c>
       <c r="AB7" s="13">
         <v>62.790697674418603</v>
       </c>
       <c r="AC7" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6279.0697674418607</v>
       </c>
       <c r="AD7" s="13">
         <v>37.209302325581397</v>
       </c>
       <c r="AE7" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3720.9302325581398</v>
       </c>
       <c r="AF7" s="13">
         <v>43.02325581395349</v>
       </c>
       <c r="AG7" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4302.3255813953492</v>
       </c>
       <c r="AH7" s="13">
         <v>37.209302325581397</v>
       </c>
       <c r="AI7" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3720.9302325581398</v>
       </c>
       <c r="AJ7" s="13">
         <v>74.418604651162795</v>
       </c>
       <c r="AK7" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7441.8604651162796</v>
       </c>
       <c r="AL7" s="13">
         <v>105.23255813953489</v>
       </c>
       <c r="AM7" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10523.255813953489</v>
       </c>
       <c r="AN7" s="13">
         <v>104.65116279069768</v>
       </c>
       <c r="AO7" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>10465.116279069769</v>
       </c>
       <c r="AP7" s="13">
         <v>63.953488372093027</v>
       </c>
       <c r="AQ7" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6395.3488372093025</v>
       </c>
       <c r="AR7" s="13">
         <v>114.53488372093024</v>
       </c>
       <c r="AS7" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>11453.488372093025</v>
       </c>
       <c r="AT7" s="13">
         <v>81.976744186046517</v>
       </c>
       <c r="AU7" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8197.6744186046526</v>
       </c>
       <c r="AV7" s="13">
         <v>47.674418604651166</v>
       </c>
       <c r="AW7" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4767.4418604651164</v>
       </c>
       <c r="AX7" s="13">
         <v>51.162790697674424</v>
       </c>
       <c r="AY7" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>5116.2790697674427</v>
       </c>
       <c r="AZ7" s="13">
         <v>48.255813953488378</v>
       </c>
       <c r="BA7" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>4825.5813953488378</v>
       </c>
       <c r="BB7" s="13">
         <v>55.813953488372093</v>
       </c>
       <c r="BC7" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5581.395348837209</v>
       </c>
       <c r="BD7" s="13">
         <v>41.279069767441861</v>
       </c>
       <c r="BE7" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>4127.9069767441861</v>
       </c>
       <c r="BF7" s="13">
         <v>31.976744186046513</v>
       </c>
       <c r="BG7" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3197.6744186046512</v>
       </c>
       <c r="BH7" s="13">
         <v>49.418604651162788</v>
       </c>
       <c r="BI7" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4941.8604651162786</v>
       </c>
       <c r="BJ7" s="15">
         <v>59.302325581395351</v>
       </c>
       <c r="BK7" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>5930.2325581395353</v>
       </c>
     </row>
@@ -4660,210 +4714,210 @@
         <v>230</v>
       </c>
       <c r="E8" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>23000</v>
       </c>
       <c r="F8" s="13">
         <v>78.297872340425528</v>
       </c>
       <c r="G8" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7829.7872340425529</v>
       </c>
       <c r="H8" s="13">
         <v>77.446808510638306</v>
       </c>
       <c r="I8" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7744.6808510638302</v>
       </c>
       <c r="J8" s="13">
         <v>49.361702127659576</v>
       </c>
       <c r="K8" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4936.1702127659573</v>
       </c>
       <c r="L8" s="13">
         <v>72.765957446808514</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7276.5957446808516</v>
       </c>
       <c r="N8" s="13">
         <v>21.276595744680851</v>
       </c>
       <c r="O8" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2127.6595744680849</v>
       </c>
       <c r="P8" s="13">
         <v>25.531914893617021</v>
       </c>
       <c r="Q8" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2553.1914893617022</v>
       </c>
       <c r="R8" s="13">
         <v>35.319148936170215</v>
       </c>
       <c r="S8" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3531.9148936170213</v>
       </c>
       <c r="T8" s="13">
         <v>24.680851063829788</v>
       </c>
       <c r="U8" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2468.0851063829787</v>
       </c>
       <c r="V8" s="13">
         <v>20.851063829787233</v>
       </c>
       <c r="W8" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2085.1063829787231</v>
       </c>
       <c r="X8" s="13">
         <v>38.723404255319153</v>
       </c>
       <c r="Y8" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3872.3404255319151</v>
       </c>
       <c r="Z8" s="13">
         <v>27.659574468085108</v>
       </c>
       <c r="AA8" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2765.9574468085107</v>
       </c>
       <c r="AB8" s="13">
         <v>34.468085106382979</v>
       </c>
       <c r="AC8" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3446.8085106382978</v>
       </c>
       <c r="AD8" s="13">
         <v>26.382978723404253</v>
       </c>
       <c r="AE8" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2638.2978723404253</v>
       </c>
       <c r="AF8" s="13">
         <v>25.531914893617021</v>
       </c>
       <c r="AG8" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2553.1914893617022</v>
       </c>
       <c r="AH8" s="13">
         <v>27.23404255319149</v>
       </c>
       <c r="AI8" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2723.4042553191489</v>
       </c>
       <c r="AJ8" s="13">
         <v>47.234042553191493</v>
       </c>
       <c r="AK8" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4723.4042553191493</v>
       </c>
       <c r="AL8" s="13">
         <v>60.851063829787236</v>
       </c>
       <c r="AM8" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>6085.1063829787236</v>
       </c>
       <c r="AN8" s="13">
         <v>65.531914893617014</v>
       </c>
       <c r="AO8" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6553.1914893617013</v>
       </c>
       <c r="AP8" s="13">
         <v>40</v>
       </c>
       <c r="AQ8" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4000</v>
       </c>
       <c r="AR8" s="13">
         <v>79.148936170212764</v>
       </c>
       <c r="AS8" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7914.8936170212764</v>
       </c>
       <c r="AT8" s="13">
         <v>57.87234042553191</v>
       </c>
       <c r="AU8" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5787.2340425531911</v>
       </c>
       <c r="AV8" s="13">
         <v>38.297872340425535</v>
       </c>
       <c r="AW8" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3829.7872340425533</v>
       </c>
       <c r="AX8" s="13">
         <v>34.042553191489361</v>
       </c>
       <c r="AY8" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3404.255319148936</v>
       </c>
       <c r="AZ8" s="13">
         <v>40.851063829787229</v>
       </c>
       <c r="BA8" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>4085.1063829787231</v>
       </c>
       <c r="BB8" s="13">
         <v>37.021276595744681</v>
       </c>
       <c r="BC8" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3702.127659574468</v>
       </c>
       <c r="BD8" s="13">
         <v>35.319148936170215</v>
       </c>
       <c r="BE8" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3531.9148936170213</v>
       </c>
       <c r="BF8" s="13">
         <v>30.638297872340424</v>
       </c>
       <c r="BG8" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3063.8297872340422</v>
       </c>
       <c r="BH8" s="13">
         <v>30.212765957446809</v>
       </c>
       <c r="BI8" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3021.2765957446809</v>
       </c>
       <c r="BJ8" s="15">
         <v>46.382978723404257</v>
       </c>
       <c r="BK8" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4638.2978723404258</v>
       </c>
     </row>
@@ -4882,210 +4936,210 @@
         <v>250</v>
       </c>
       <c r="E9" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>25000</v>
       </c>
       <c r="F9" s="13">
         <v>120.29702970297029</v>
       </c>
       <c r="G9" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12029.702970297029</v>
       </c>
       <c r="H9" s="13">
         <v>100.99009900990099</v>
       </c>
       <c r="I9" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10099.009900990099</v>
       </c>
       <c r="J9" s="13">
         <v>71.78217821782178</v>
       </c>
       <c r="K9" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7178.2178217821784</v>
       </c>
       <c r="L9" s="13">
         <v>111.38613861386139</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11138.613861386139</v>
       </c>
       <c r="N9" s="13">
         <v>32.673267326732677</v>
       </c>
       <c r="O9" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3267.3267326732675</v>
       </c>
       <c r="P9" s="13">
         <v>24.257425742574256</v>
       </c>
       <c r="Q9" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2425.7425742574255</v>
       </c>
       <c r="R9" s="13">
         <v>38.118811881188122</v>
       </c>
       <c r="S9" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3811.8811881188121</v>
       </c>
       <c r="T9" s="13">
         <v>23.762376237623762</v>
       </c>
       <c r="U9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2376.2376237623762</v>
       </c>
       <c r="V9" s="13">
         <v>16.336633663366339</v>
       </c>
       <c r="W9" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1633.6633663366338</v>
       </c>
       <c r="X9" s="13">
         <v>43.564356435643568</v>
       </c>
       <c r="Y9" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4356.4356435643567</v>
       </c>
       <c r="Z9" s="13">
         <v>32.178217821782177</v>
       </c>
       <c r="AA9" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3217.8217821782177</v>
       </c>
       <c r="AB9" s="13">
         <v>26.237623762376238</v>
       </c>
       <c r="AC9" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2623.7623762376238</v>
       </c>
       <c r="AD9" s="13">
         <v>34.653465346534652</v>
       </c>
       <c r="AE9" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3465.3465346534654</v>
       </c>
       <c r="AF9" s="13">
         <v>24.752475247524753</v>
       </c>
       <c r="AG9" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2475.2475247524753</v>
       </c>
       <c r="AH9" s="13">
         <v>34.653465346534652</v>
       </c>
       <c r="AI9" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3465.3465346534654</v>
       </c>
       <c r="AJ9" s="13">
         <v>65.346534653465355</v>
       </c>
       <c r="AK9" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6534.6534653465351</v>
       </c>
       <c r="AL9" s="13">
         <v>87.128712871287135</v>
       </c>
       <c r="AM9" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>8712.8712871287134</v>
       </c>
       <c r="AN9" s="13">
         <v>92.079207920792086</v>
       </c>
       <c r="AO9" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9207.9207920792087</v>
       </c>
       <c r="AP9" s="13">
         <v>46.039603960396043</v>
       </c>
       <c r="AQ9" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4603.9603960396043</v>
       </c>
       <c r="AR9" s="13">
         <v>76.732673267326732</v>
       </c>
       <c r="AS9" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7673.2673267326736</v>
       </c>
       <c r="AT9" s="13">
         <v>72.772277227722768</v>
       </c>
       <c r="AU9" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7277.227722772277</v>
       </c>
       <c r="AV9" s="13">
         <v>49.504950495049506</v>
       </c>
       <c r="AW9" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4950.4950495049507</v>
       </c>
       <c r="AX9" s="13">
         <v>48.514851485148512</v>
       </c>
       <c r="AY9" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>4851.4851485148511</v>
       </c>
       <c r="AZ9" s="13">
         <v>53.46534653465347</v>
       </c>
       <c r="BA9" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5346.5346534653472</v>
       </c>
       <c r="BB9" s="13">
         <v>48.019801980198018</v>
       </c>
       <c r="BC9" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4801.9801980198017</v>
       </c>
       <c r="BD9" s="13">
         <v>46.534653465346537</v>
       </c>
       <c r="BE9" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>4653.4653465346537</v>
       </c>
       <c r="BF9" s="13">
         <v>30.198019801980198</v>
       </c>
       <c r="BG9" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3019.8019801980199</v>
       </c>
       <c r="BH9" s="13">
         <v>44.554455445544555</v>
       </c>
       <c r="BI9" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4455.4455445544554</v>
       </c>
       <c r="BJ9" s="15">
         <v>63.366336633663366</v>
       </c>
       <c r="BK9" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>6336.6336633663368</v>
       </c>
     </row>
@@ -5104,210 +5158,210 @@
         <v>226</v>
       </c>
       <c r="E10" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>22600</v>
       </c>
       <c r="F10" s="13">
         <v>68.478260869565219</v>
       </c>
       <c r="G10" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6847.826086956522</v>
       </c>
       <c r="H10" s="13">
         <v>78.260869565217391</v>
       </c>
       <c r="I10" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7826.086956521739</v>
       </c>
       <c r="J10" s="13">
         <v>56.521739130434781</v>
       </c>
       <c r="K10" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5652.173913043478</v>
       </c>
       <c r="L10" s="13">
         <v>71.739130434782609</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7173.913043478261</v>
       </c>
       <c r="N10" s="13">
         <v>22.282608695652172</v>
       </c>
       <c r="O10" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2228.260869565217</v>
       </c>
       <c r="P10" s="13">
         <v>14.130434782608695</v>
       </c>
       <c r="Q10" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1413.0434782608695</v>
       </c>
       <c r="R10" s="13">
         <v>19.565217391304348</v>
       </c>
       <c r="S10" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1956.5217391304348</v>
       </c>
       <c r="T10" s="13">
         <v>13.043478260869565</v>
       </c>
       <c r="U10" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1304.3478260869565</v>
       </c>
       <c r="V10" s="13">
         <v>17.934782608695652</v>
       </c>
       <c r="W10" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1793.4782608695652</v>
       </c>
       <c r="X10" s="13">
         <v>40.217391304347828</v>
       </c>
       <c r="Y10" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4021.739130434783</v>
       </c>
       <c r="Z10" s="13">
         <v>20.652173913043477</v>
       </c>
       <c r="AA10" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2065.2173913043475</v>
       </c>
       <c r="AB10" s="13">
         <v>17.934782608695652</v>
       </c>
       <c r="AC10" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1793.4782608695652</v>
       </c>
       <c r="AD10" s="13">
         <v>26.086956521739129</v>
       </c>
       <c r="AE10" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2608.695652173913</v>
       </c>
       <c r="AF10" s="13">
         <v>19.021739130434785</v>
       </c>
       <c r="AG10" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1902.1739130434785</v>
       </c>
       <c r="AH10" s="13">
         <v>17.391304347826086</v>
       </c>
       <c r="AI10" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1739.1304347826085</v>
       </c>
       <c r="AJ10" s="13">
         <v>43.478260869565219</v>
       </c>
       <c r="AK10" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4347.826086956522</v>
       </c>
       <c r="AL10" s="13">
         <v>60.326086956521742</v>
       </c>
       <c r="AM10" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>6032.608695652174</v>
       </c>
       <c r="AN10" s="13">
         <v>58.695652173913047</v>
       </c>
       <c r="AO10" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5869.5652173913049</v>
       </c>
       <c r="AP10" s="13">
         <v>32.065217391304344</v>
       </c>
       <c r="AQ10" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3206.5217391304345</v>
       </c>
       <c r="AR10" s="13">
         <v>51.630434782608688</v>
       </c>
       <c r="AS10" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5163.0434782608691</v>
       </c>
       <c r="AT10" s="13">
         <v>43.478260869565219</v>
       </c>
       <c r="AU10" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4347.826086956522</v>
       </c>
       <c r="AV10" s="13">
         <v>40.760869565217391</v>
       </c>
       <c r="AW10" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4076.086956521739</v>
       </c>
       <c r="AX10" s="13">
         <v>28.804347826086957</v>
       </c>
       <c r="AY10" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2880.4347826086955</v>
       </c>
       <c r="AZ10" s="13">
         <v>38.04347826086957</v>
       </c>
       <c r="BA10" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3804.347826086957</v>
       </c>
       <c r="BB10" s="13">
         <v>43.478260869565219</v>
       </c>
       <c r="BC10" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4347.826086956522</v>
       </c>
       <c r="BD10" s="13">
         <v>38.04347826086957</v>
       </c>
       <c r="BE10" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3804.347826086957</v>
       </c>
       <c r="BF10" s="13">
         <v>28.260869565217391</v>
       </c>
       <c r="BG10" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2826.086956521739</v>
       </c>
       <c r="BH10" s="13">
         <v>36.413043478260867</v>
       </c>
       <c r="BI10" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3641.3043478260865</v>
       </c>
       <c r="BJ10" s="15">
         <v>38.04347826086957</v>
       </c>
       <c r="BK10" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3804.347826086957</v>
       </c>
     </row>
@@ -5326,210 +5380,210 @@
         <v>262</v>
       </c>
       <c r="E11" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>26200</v>
       </c>
       <c r="F11" s="13">
         <v>135.46099290780143</v>
       </c>
       <c r="G11" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13546.099290780143</v>
       </c>
       <c r="H11" s="13">
         <v>122.69503546099291</v>
       </c>
       <c r="I11" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12269.503546099291</v>
       </c>
       <c r="J11" s="13">
         <v>76.59574468085107</v>
       </c>
       <c r="K11" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7659.5744680851067</v>
       </c>
       <c r="L11" s="13">
         <v>112.05673758865248</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11205.673758865249</v>
       </c>
       <c r="N11" s="13">
         <v>44.680851063829785</v>
       </c>
       <c r="O11" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4468.0851063829787</v>
       </c>
       <c r="P11" s="13">
         <v>32.62411347517731</v>
       </c>
       <c r="Q11" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3262.411347517731</v>
       </c>
       <c r="R11" s="13">
         <v>42.553191489361701</v>
       </c>
       <c r="S11" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4255.3191489361698</v>
       </c>
       <c r="T11" s="13">
         <v>25.531914893617021</v>
       </c>
       <c r="U11" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2553.1914893617022</v>
       </c>
       <c r="V11" s="13">
         <v>19.148936170212767</v>
       </c>
       <c r="W11" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1914.8936170212767</v>
       </c>
       <c r="X11" s="13">
         <v>62.411347517730498</v>
       </c>
       <c r="Y11" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6241.1347517730501</v>
       </c>
       <c r="Z11" s="13">
         <v>46.099290780141843</v>
       </c>
       <c r="AA11" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4609.9290780141846</v>
       </c>
       <c r="AB11" s="13">
         <v>37.588652482269502</v>
       </c>
       <c r="AC11" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3758.8652482269504</v>
       </c>
       <c r="AD11" s="13">
         <v>38.297872340425535</v>
       </c>
       <c r="AE11" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3829.7872340425533</v>
       </c>
       <c r="AF11" s="13">
         <v>49.645390070921984</v>
       </c>
       <c r="AG11" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4964.5390070921985</v>
       </c>
       <c r="AH11" s="13">
         <v>46.808510638297875</v>
       </c>
       <c r="AI11" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4680.8510638297876</v>
       </c>
       <c r="AJ11" s="13">
         <v>78.723404255319153</v>
       </c>
       <c r="AK11" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7872.3404255319156</v>
       </c>
       <c r="AL11" s="13">
         <v>106.38297872340425</v>
       </c>
       <c r="AM11" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10638.297872340425</v>
       </c>
       <c r="AN11" s="13">
         <v>107.80141843971631</v>
       </c>
       <c r="AO11" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>10780.141843971631</v>
       </c>
       <c r="AP11" s="13">
         <v>48.226950354609926</v>
       </c>
       <c r="AQ11" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4822.6950354609926</v>
       </c>
       <c r="AR11" s="13">
         <v>97.872340425531917</v>
       </c>
       <c r="AS11" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>9787.2340425531911</v>
       </c>
       <c r="AT11" s="13">
         <v>63.12056737588653</v>
       </c>
       <c r="AU11" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>6312.056737588653</v>
       </c>
       <c r="AV11" s="13">
         <v>56.028368794326241</v>
       </c>
       <c r="AW11" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5602.8368794326243</v>
       </c>
       <c r="AX11" s="13">
         <v>47.5177304964539</v>
       </c>
       <c r="AY11" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>4751.7730496453896</v>
       </c>
       <c r="AZ11" s="13">
         <v>58.865248226950349</v>
       </c>
       <c r="BA11" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5886.5248226950353</v>
       </c>
       <c r="BB11" s="13">
         <v>65.248226950354621</v>
       </c>
       <c r="BC11" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>6524.8226950354619</v>
       </c>
       <c r="BD11" s="13">
         <v>40.425531914893611</v>
       </c>
       <c r="BE11" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>4042.5531914893609</v>
       </c>
       <c r="BF11" s="13">
         <v>41.134751773049643</v>
       </c>
       <c r="BG11" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4113.4751773049647</v>
       </c>
       <c r="BH11" s="13">
         <v>50.354609929078009</v>
       </c>
       <c r="BI11" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5035.4609929078006</v>
       </c>
       <c r="BJ11" s="15">
         <v>65.248226950354621</v>
       </c>
       <c r="BK11" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>6524.8226950354619</v>
       </c>
     </row>
@@ -5548,210 +5602,210 @@
         <v>263</v>
       </c>
       <c r="E12" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>26300</v>
       </c>
       <c r="F12" s="13">
         <v>154.78260869565216</v>
       </c>
       <c r="G12" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15478.260869565216</v>
       </c>
       <c r="H12" s="13">
         <v>152.17391304347828</v>
       </c>
       <c r="I12" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15217.391304347828</v>
       </c>
       <c r="J12" s="13">
         <v>106.08695652173914</v>
       </c>
       <c r="K12" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10608.695652173914</v>
       </c>
       <c r="L12" s="13">
         <v>140</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14000</v>
       </c>
       <c r="N12" s="13">
         <v>46.956521739130437</v>
       </c>
       <c r="O12" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4695.652173913044</v>
       </c>
       <c r="P12" s="13">
         <v>30.434782608695656</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3043.4782608695655</v>
       </c>
       <c r="R12" s="13">
         <v>55.652173913043477</v>
       </c>
       <c r="S12" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5565.217391304348</v>
       </c>
       <c r="T12" s="13">
         <v>26.956521739130434</v>
       </c>
       <c r="U12" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2695.6521739130435</v>
       </c>
       <c r="V12" s="13">
         <v>29.565217391304348</v>
       </c>
       <c r="W12" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2956.521739130435</v>
       </c>
       <c r="X12" s="13">
         <v>83.478260869565219</v>
       </c>
       <c r="Y12" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8347.826086956522</v>
       </c>
       <c r="Z12" s="13">
         <v>53.913043478260867</v>
       </c>
       <c r="AA12" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5391.304347826087</v>
       </c>
       <c r="AB12" s="13">
         <v>46.956521739130437</v>
       </c>
       <c r="AC12" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4695.652173913044</v>
       </c>
       <c r="AD12" s="13">
         <v>40.869565217391305</v>
       </c>
       <c r="AE12" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4086.9565217391305</v>
       </c>
       <c r="AF12" s="13">
         <v>35.652173913043477</v>
       </c>
       <c r="AG12" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3565.2173913043475</v>
       </c>
       <c r="AH12" s="13">
         <v>33.043478260869563</v>
       </c>
       <c r="AI12" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3304.347826086956</v>
       </c>
       <c r="AJ12" s="13">
         <v>102.60869565217392</v>
       </c>
       <c r="AK12" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>10260.869565217392</v>
       </c>
       <c r="AL12" s="13">
         <v>126.08695652173914</v>
       </c>
       <c r="AM12" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>12608.695652173914</v>
       </c>
       <c r="AN12" s="13">
         <v>122.60869565217392</v>
       </c>
       <c r="AO12" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>12260.869565217392</v>
       </c>
       <c r="AP12" s="13">
         <v>72.173913043478265</v>
       </c>
       <c r="AQ12" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7217.3913043478269</v>
       </c>
       <c r="AR12" s="13">
         <v>99.130434782608702</v>
       </c>
       <c r="AS12" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>9913.04347826087</v>
       </c>
       <c r="AT12" s="13">
         <v>90.434782608695656</v>
       </c>
       <c r="AU12" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9043.4782608695659</v>
       </c>
       <c r="AV12" s="13">
         <v>66.086956521739125</v>
       </c>
       <c r="AW12" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>6608.6956521739121</v>
       </c>
       <c r="AX12" s="13">
         <v>51.304347826086961</v>
       </c>
       <c r="AY12" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>5130.434782608696</v>
       </c>
       <c r="AZ12" s="13">
         <v>53.913043478260867</v>
       </c>
       <c r="BA12" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5391.304347826087</v>
       </c>
       <c r="BB12" s="13">
         <v>68.695652173913047</v>
       </c>
       <c r="BC12" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>6869.5652173913049</v>
       </c>
       <c r="BD12" s="13">
         <v>59.130434782608695</v>
       </c>
       <c r="BE12" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>5913.04347826087</v>
       </c>
       <c r="BF12" s="13">
         <v>46.956521739130437</v>
       </c>
       <c r="BG12" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4695.652173913044</v>
       </c>
       <c r="BH12" s="13">
         <v>62.608695652173921</v>
       </c>
       <c r="BI12" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6260.8695652173919</v>
       </c>
       <c r="BJ12" s="15">
         <v>70.434782608695656</v>
       </c>
       <c r="BK12" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>7043.4782608695659</v>
       </c>
     </row>
@@ -5770,210 +5824,210 @@
         <v>197</v>
       </c>
       <c r="E13" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>19700</v>
       </c>
       <c r="F13" s="13">
         <v>68.390804597701148</v>
       </c>
       <c r="G13" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6839.0804597701144</v>
       </c>
       <c r="H13" s="13">
         <v>51.149425287356323</v>
       </c>
       <c r="I13" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5114.9425287356325</v>
       </c>
       <c r="J13" s="13">
         <v>34.482758620689658</v>
       </c>
       <c r="K13" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3448.275862068966</v>
       </c>
       <c r="L13" s="13">
         <v>41.954022988505749</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4195.4022988505749</v>
       </c>
       <c r="N13" s="13">
         <v>27.011494252873565</v>
       </c>
       <c r="O13" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2701.1494252873563</v>
       </c>
       <c r="P13" s="13">
         <v>9.7701149425287355</v>
       </c>
       <c r="Q13" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>977.01149425287349</v>
       </c>
       <c r="R13" s="13">
         <v>13.218390804597702</v>
       </c>
       <c r="S13" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1321.8390804597702</v>
       </c>
       <c r="T13" s="13">
         <v>8.0459770114942533</v>
       </c>
       <c r="U13" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>804.59770114942535</v>
       </c>
       <c r="V13" s="13">
         <v>8.6206896551724146</v>
       </c>
       <c r="W13" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>862.06896551724151</v>
       </c>
       <c r="X13" s="13">
         <v>32.758620689655174</v>
       </c>
       <c r="Y13" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3275.8620689655172</v>
       </c>
       <c r="Z13" s="13">
         <v>21.839080459770116</v>
       </c>
       <c r="AA13" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2183.9080459770116</v>
       </c>
       <c r="AB13" s="13">
         <v>13.793103448275861</v>
       </c>
       <c r="AC13" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1379.3103448275861</v>
       </c>
       <c r="AD13" s="13">
         <v>18.390804597701148</v>
       </c>
       <c r="AE13" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1839.0804597701149</v>
       </c>
       <c r="AF13" s="13">
         <v>15.517241379310345</v>
       </c>
       <c r="AG13" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1551.7241379310344</v>
       </c>
       <c r="AH13" s="13">
         <v>14.942528735632186</v>
       </c>
       <c r="AI13" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1494.2528735632186</v>
       </c>
       <c r="AJ13" s="13">
         <v>37.931034482758619</v>
       </c>
       <c r="AK13" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3793.1034482758619</v>
       </c>
       <c r="AL13" s="13">
         <v>47.126436781609193</v>
       </c>
       <c r="AM13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4712.6436781609191</v>
       </c>
       <c r="AN13" s="13">
         <v>59.770114942528743</v>
       </c>
       <c r="AO13" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5977.0114942528744</v>
       </c>
       <c r="AP13" s="13">
         <v>37.931034482758619</v>
       </c>
       <c r="AQ13" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3793.1034482758619</v>
       </c>
       <c r="AR13" s="13">
         <v>39.080459770114942</v>
       </c>
       <c r="AS13" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3908.045977011494</v>
       </c>
       <c r="AT13" s="13">
         <v>32.758620689655174</v>
       </c>
       <c r="AU13" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3275.8620689655172</v>
       </c>
       <c r="AV13" s="13">
         <v>19.540229885057471</v>
       </c>
       <c r="AW13" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1954.022988505747</v>
       </c>
       <c r="AX13" s="13">
         <v>16.091954022988507</v>
       </c>
       <c r="AY13" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1609.1954022988507</v>
       </c>
       <c r="AZ13" s="13">
         <v>33.90804597701149</v>
       </c>
       <c r="BA13" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3390.8045977011489</v>
       </c>
       <c r="BB13" s="13">
         <v>22.413793103448278</v>
       </c>
       <c r="BC13" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2241.3793103448279</v>
       </c>
       <c r="BD13" s="13">
         <v>16.091954022988507</v>
       </c>
       <c r="BE13" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1609.1954022988507</v>
       </c>
       <c r="BF13" s="13">
         <v>14.367816091954023</v>
       </c>
       <c r="BG13" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1436.7816091954023</v>
       </c>
       <c r="BH13" s="13">
         <v>21.264367816091951</v>
       </c>
       <c r="BI13" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2126.4367816091954</v>
       </c>
       <c r="BJ13" s="15">
         <v>22.413793103448278</v>
       </c>
       <c r="BK13" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2241.3793103448279</v>
       </c>
     </row>
@@ -5992,210 +6046,210 @@
         <v>184</v>
       </c>
       <c r="E14" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>18400</v>
       </c>
       <c r="F14" s="13">
         <v>76.165803108808291</v>
       </c>
       <c r="G14" s="39">
+        <f t="shared" si="1"/>
+        <v>7616.5803108808286</v>
+      </c>
+      <c r="H14" s="13">
+        <v>76.165803108808291</v>
+      </c>
+      <c r="I14" s="39">
         <f t="shared" si="2"/>
         <v>7616.5803108808286</v>
       </c>
-      <c r="H14" s="13">
-        <v>76.165803108808291</v>
-      </c>
-      <c r="I14" s="39">
-        <f t="shared" si="3"/>
-        <v>7616.5803108808286</v>
-      </c>
       <c r="J14" s="13">
         <v>49.740932642487046</v>
       </c>
       <c r="K14" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4974.0932642487041</v>
       </c>
       <c r="L14" s="13">
         <v>68.911917098445599</v>
       </c>
       <c r="M14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6891.1917098445601</v>
       </c>
       <c r="N14" s="13">
         <v>17.098445595854923</v>
       </c>
       <c r="O14" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1709.8445595854923</v>
       </c>
       <c r="P14" s="13">
         <v>16.580310880829018</v>
       </c>
       <c r="Q14" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1658.0310880829018</v>
       </c>
       <c r="R14" s="13">
         <v>24.870466321243523</v>
       </c>
       <c r="S14" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2487.0466321243521</v>
       </c>
       <c r="T14" s="13">
         <v>15.544041450777202</v>
       </c>
       <c r="U14" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1554.4041450777202</v>
       </c>
       <c r="V14" s="13">
         <v>9.8445595854922274</v>
       </c>
       <c r="W14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>984.45595854922271</v>
       </c>
       <c r="X14" s="13">
         <v>26.424870466321241</v>
       </c>
       <c r="Y14" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2642.487046632124</v>
       </c>
       <c r="Z14" s="13">
         <v>11.917098445595855</v>
       </c>
       <c r="AA14" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1191.7098445595855</v>
       </c>
       <c r="AB14" s="13">
         <v>15.544041450777202</v>
       </c>
       <c r="AC14" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1554.4041450777202</v>
       </c>
       <c r="AD14" s="13">
         <v>24.352331606217618</v>
       </c>
       <c r="AE14" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2435.2331606217617</v>
       </c>
       <c r="AF14" s="13">
         <v>12.953367875647666</v>
       </c>
       <c r="AG14" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1295.3367875647666</v>
       </c>
       <c r="AH14" s="13">
         <v>18.652849740932641</v>
       </c>
       <c r="AI14" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1865.2849740932641</v>
       </c>
       <c r="AJ14" s="13">
         <v>48.704663212435236</v>
       </c>
       <c r="AK14" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4870.4663212435235</v>
       </c>
       <c r="AL14" s="13">
         <v>60.62176165803109</v>
       </c>
       <c r="AM14" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>6062.1761658031091</v>
       </c>
       <c r="AN14" s="13">
         <v>78.756476683937819</v>
       </c>
       <c r="AO14" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7875.6476683937817</v>
       </c>
       <c r="AP14" s="13">
         <v>29.015544041450774</v>
       </c>
       <c r="AQ14" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2901.5544041450776</v>
       </c>
       <c r="AR14" s="13">
         <v>55.958549222797927</v>
       </c>
       <c r="AS14" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5595.8549222797928</v>
       </c>
       <c r="AT14" s="13">
         <v>42.487046632124354</v>
       </c>
       <c r="AU14" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4248.7046632124357</v>
       </c>
       <c r="AV14" s="13">
         <v>33.678756476683937</v>
       </c>
       <c r="AW14" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3367.8756476683939</v>
       </c>
       <c r="AX14" s="13">
         <v>24.352331606217618</v>
       </c>
       <c r="AY14" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2435.2331606217617</v>
       </c>
       <c r="AZ14" s="13">
         <v>40.932642487046635</v>
       </c>
       <c r="BA14" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>4093.2642487046637</v>
       </c>
       <c r="BB14" s="13">
         <v>52.331606217616574</v>
       </c>
       <c r="BC14" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5233.1606217616572</v>
       </c>
       <c r="BD14" s="13">
         <v>35.233160621761655</v>
       </c>
       <c r="BE14" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3523.3160621761654</v>
       </c>
       <c r="BF14" s="13">
         <v>29.533678756476682</v>
       </c>
       <c r="BG14" s="39">
+        <f t="shared" si="27"/>
+        <v>2953.3678756476684</v>
+      </c>
+      <c r="BH14" s="13">
+        <v>29.533678756476682</v>
+      </c>
+      <c r="BI14" s="56">
         <f t="shared" si="28"/>
         <v>2953.3678756476684</v>
       </c>
-      <c r="BH14" s="13">
-        <v>29.533678756476682</v>
-      </c>
-      <c r="BI14" s="56">
-        <f t="shared" si="29"/>
-        <v>2953.3678756476684</v>
-      </c>
       <c r="BJ14" s="15">
         <v>37.823834196891191</v>
       </c>
       <c r="BK14" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3782.3834196891189</v>
       </c>
     </row>
@@ -6214,210 +6268,210 @@
         <v>220</v>
       </c>
       <c r="E15" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>22000</v>
       </c>
       <c r="F15" s="13">
         <v>78.754578754578759</v>
       </c>
       <c r="G15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7875.4578754578761</v>
       </c>
       <c r="H15" s="13">
         <v>80.586080586080584</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8058.6080586080589</v>
       </c>
       <c r="J15" s="13">
         <v>52.380952380952387</v>
       </c>
       <c r="K15" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5238.0952380952385</v>
       </c>
       <c r="L15" s="13">
         <v>65.201465201465197</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6520.1465201465198</v>
       </c>
       <c r="N15" s="13">
         <v>31.5018315018315</v>
       </c>
       <c r="O15" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3150.1831501831498</v>
       </c>
       <c r="P15" s="13">
         <v>20.512820512820511</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2051.2820512820513</v>
       </c>
       <c r="R15" s="13">
         <v>24.908424908424909</v>
       </c>
       <c r="S15" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2490.8424908424909</v>
       </c>
       <c r="T15" s="13">
         <v>18.681318681318682</v>
       </c>
       <c r="U15" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1868.1318681318683</v>
       </c>
       <c r="V15" s="13">
         <v>19.047619047619047</v>
       </c>
       <c r="W15" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1904.7619047619048</v>
       </c>
       <c r="X15" s="13">
         <v>32.600732600732599</v>
       </c>
       <c r="Y15" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3260.0732600732599</v>
       </c>
       <c r="Z15" s="13">
         <v>22.710622710622712</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2271.0622710622711</v>
       </c>
       <c r="AB15" s="13">
         <v>25.641025641025639</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2564.102564102564</v>
       </c>
       <c r="AD15" s="13">
         <v>23.076923076923077</v>
       </c>
       <c r="AE15" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2307.6923076923076</v>
       </c>
       <c r="AF15" s="13">
         <v>22.710622710622712</v>
       </c>
       <c r="AG15" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2271.0622710622711</v>
       </c>
       <c r="AH15" s="13">
         <v>25.641025641025639</v>
       </c>
       <c r="AI15" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2564.102564102564</v>
       </c>
       <c r="AJ15" s="13">
         <v>39.194139194139197</v>
       </c>
       <c r="AK15" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3919.4139194139198</v>
       </c>
       <c r="AL15" s="13">
         <v>66.300366300366292</v>
       </c>
       <c r="AM15" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>6630.0366300366295</v>
       </c>
       <c r="AN15" s="13">
         <v>65.934065934065927</v>
       </c>
       <c r="AO15" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6593.4065934065929</v>
       </c>
       <c r="AP15" s="13">
         <v>30.76923076923077</v>
       </c>
       <c r="AQ15" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3076.9230769230771</v>
       </c>
       <c r="AR15" s="13">
         <v>74.72527472527473</v>
       </c>
       <c r="AS15" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>7472.527472527473</v>
       </c>
       <c r="AT15" s="13">
         <v>54.578754578754577</v>
       </c>
       <c r="AU15" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5457.8754578754579</v>
       </c>
       <c r="AV15" s="13">
         <v>36.630036630036628</v>
       </c>
       <c r="AW15" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3663.003663003663</v>
       </c>
       <c r="AX15" s="13">
         <v>35.164835164835168</v>
       </c>
       <c r="AY15" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3516.4835164835167</v>
       </c>
       <c r="AZ15" s="13">
         <v>50.915750915750912</v>
       </c>
       <c r="BA15" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5091.5750915750914</v>
       </c>
       <c r="BB15" s="13">
         <v>45.787545787545788</v>
       </c>
       <c r="BC15" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4578.7545787545787</v>
       </c>
       <c r="BD15" s="13">
         <v>37.72893772893773</v>
       </c>
       <c r="BE15" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3772.8937728937731</v>
       </c>
       <c r="BF15" s="13">
         <v>31.135531135531135</v>
       </c>
       <c r="BG15" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3113.5531135531137</v>
       </c>
       <c r="BH15" s="13">
         <v>35.531135531135533</v>
       </c>
       <c r="BI15" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3553.1135531135533</v>
       </c>
       <c r="BJ15" s="15">
         <v>46.153846153846153</v>
       </c>
       <c r="BK15" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4615.3846153846152</v>
       </c>
     </row>
@@ -6436,210 +6490,210 @@
         <v>201</v>
       </c>
       <c r="E16" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>20100</v>
       </c>
       <c r="F16" s="13">
         <v>71.753246753246756</v>
       </c>
       <c r="G16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7175.3246753246758</v>
       </c>
       <c r="H16" s="13">
         <v>78.246753246753244</v>
       </c>
       <c r="I16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7824.6753246753242</v>
       </c>
       <c r="J16" s="13">
         <v>44.480519480519483</v>
       </c>
       <c r="K16" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4448.0519480519479</v>
       </c>
       <c r="L16" s="13">
         <v>74.350649350649363</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7435.0649350649364</v>
       </c>
       <c r="N16" s="13">
         <v>24.675324675324674</v>
       </c>
       <c r="O16" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2467.5324675324673</v>
       </c>
       <c r="P16" s="13">
         <v>15.584415584415584</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1558.4415584415585</v>
       </c>
       <c r="R16" s="13">
         <v>18.831168831168831</v>
       </c>
       <c r="S16" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1883.1168831168832</v>
       </c>
       <c r="T16" s="13">
         <v>13.311688311688311</v>
       </c>
       <c r="U16" s="39">
+        <f t="shared" si="8"/>
+        <v>1331.168831168831</v>
+      </c>
+      <c r="V16" s="13">
+        <v>13.311688311688311</v>
+      </c>
+      <c r="W16" s="39">
         <f t="shared" si="9"/>
         <v>1331.168831168831</v>
       </c>
-      <c r="V16" s="13">
-        <v>13.311688311688311</v>
-      </c>
-      <c r="W16" s="39">
-        <f t="shared" si="10"/>
-        <v>1331.168831168831</v>
-      </c>
       <c r="X16" s="13">
         <v>27.27272727272727</v>
       </c>
       <c r="Y16" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2727.272727272727</v>
       </c>
       <c r="Z16" s="13">
         <v>13.961038961038961</v>
       </c>
       <c r="AA16" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1396.103896103896</v>
       </c>
       <c r="AB16" s="13">
         <v>18.181818181818183</v>
       </c>
       <c r="AC16" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1818.1818181818182</v>
       </c>
       <c r="AD16" s="13">
         <v>12.987012987012985</v>
       </c>
       <c r="AE16" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1298.7012987012986</v>
       </c>
       <c r="AF16" s="13">
         <v>14.285714285714285</v>
       </c>
       <c r="AG16" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1428.5714285714284</v>
       </c>
       <c r="AH16" s="13">
         <v>15.909090909090908</v>
       </c>
       <c r="AI16" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1590.9090909090908</v>
       </c>
       <c r="AJ16" s="13">
         <v>53.896103896103895</v>
       </c>
       <c r="AK16" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5389.6103896103896</v>
       </c>
       <c r="AL16" s="13">
         <v>48.376623376623378</v>
       </c>
       <c r="AM16" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4837.6623376623374</v>
       </c>
       <c r="AN16" s="13">
         <v>60.389610389610397</v>
       </c>
       <c r="AO16" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6038.9610389610398</v>
       </c>
       <c r="AP16" s="13">
         <v>28.896103896103899</v>
       </c>
       <c r="AQ16" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2889.61038961039</v>
       </c>
       <c r="AR16" s="13">
         <v>52.272727272727273</v>
       </c>
       <c r="AS16" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5227.272727272727</v>
       </c>
       <c r="AT16" s="13">
         <v>50.649350649350644</v>
       </c>
       <c r="AU16" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5064.9350649350645</v>
       </c>
       <c r="AV16" s="13">
         <v>29.545454545454547</v>
       </c>
       <c r="AW16" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2954.5454545454545</v>
       </c>
       <c r="AX16" s="13">
         <v>27.597402597402599</v>
       </c>
       <c r="AY16" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2759.7402597402597</v>
       </c>
       <c r="AZ16" s="13">
         <v>29.870129870129869</v>
       </c>
       <c r="BA16" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2987.0129870129867</v>
       </c>
       <c r="BB16" s="13">
         <v>39.285714285714285</v>
       </c>
       <c r="BC16" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3928.5714285714284</v>
       </c>
       <c r="BD16" s="13">
         <v>32.467532467532465</v>
       </c>
       <c r="BE16" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3246.7532467532465</v>
       </c>
       <c r="BF16" s="13">
         <v>20.454545454545457</v>
       </c>
       <c r="BG16" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2045.4545454545457</v>
       </c>
       <c r="BH16" s="13">
         <v>23.7012987012987</v>
       </c>
       <c r="BI16" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2370.1298701298701</v>
       </c>
       <c r="BJ16" s="15">
         <v>35.38961038961039</v>
       </c>
       <c r="BK16" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3538.9610389610389</v>
       </c>
     </row>
@@ -6658,210 +6712,210 @@
         <v>184</v>
       </c>
       <c r="E17" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>18400</v>
       </c>
       <c r="F17" s="13">
         <v>19.243986254295535</v>
       </c>
       <c r="G17" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1924.3986254295535</v>
       </c>
       <c r="H17" s="13">
         <v>19.816723940435281</v>
       </c>
       <c r="I17" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1981.6723940435281</v>
       </c>
       <c r="J17" s="13">
         <v>13.058419243986256</v>
       </c>
       <c r="K17" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1305.8419243986257</v>
       </c>
       <c r="L17" s="13">
         <v>21.878579610538374</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2187.8579610538372</v>
       </c>
       <c r="N17" s="13">
         <v>9.2783505154639183</v>
       </c>
       <c r="O17" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>927.83505154639181</v>
       </c>
       <c r="P17" s="13">
         <v>5.72737686139748</v>
       </c>
       <c r="Q17" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>572.73768613974801</v>
       </c>
       <c r="R17" s="13">
         <v>8.2474226804123703</v>
       </c>
       <c r="S17" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>824.74226804123703</v>
       </c>
       <c r="T17" s="13">
         <v>6.9873997709049256</v>
       </c>
       <c r="U17" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>698.73997709049252</v>
       </c>
       <c r="V17" s="13">
         <v>5.72737686139748</v>
       </c>
       <c r="W17" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>572.73768613974801</v>
       </c>
       <c r="X17" s="13">
         <v>14.432989690721648</v>
       </c>
       <c r="Y17" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1443.2989690721647</v>
       </c>
       <c r="Z17" s="13">
         <v>7.3310423825887749</v>
       </c>
       <c r="AA17" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>733.10423825887744</v>
       </c>
       <c r="AB17" s="13">
         <v>9.3928980526918675</v>
       </c>
       <c r="AC17" s="39">
+        <f t="shared" si="12"/>
+        <v>939.28980526918679</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>9.3928980526918675</v>
+      </c>
+      <c r="AE17" s="39">
         <f t="shared" si="13"/>
         <v>939.28980526918679</v>
       </c>
-      <c r="AD17" s="13">
-        <v>9.3928980526918675</v>
-      </c>
-      <c r="AE17" s="39">
-        <f t="shared" si="14"/>
-        <v>939.28980526918679</v>
-      </c>
       <c r="AF17" s="13">
         <v>6.5292096219931279</v>
       </c>
       <c r="AG17" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>652.92096219931284</v>
       </c>
       <c r="AH17" s="13">
         <v>7.5601374570446733</v>
       </c>
       <c r="AI17" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>756.01374570446728</v>
       </c>
       <c r="AJ17" s="13">
         <v>10.538373424971363</v>
       </c>
       <c r="AK17" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1053.8373424971362</v>
       </c>
       <c r="AL17" s="13">
         <v>14.547537227949601</v>
       </c>
       <c r="AM17" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1454.7537227949601</v>
       </c>
       <c r="AN17" s="13">
         <v>14.20389461626575</v>
       </c>
       <c r="AO17" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1420.389461626575</v>
       </c>
       <c r="AP17" s="13">
         <v>6.9873997709049256</v>
       </c>
       <c r="AQ17" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>698.73997709049252</v>
       </c>
       <c r="AR17" s="13">
         <v>11.798396334478808</v>
       </c>
       <c r="AS17" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1179.8396334478807</v>
       </c>
       <c r="AT17" s="13">
         <v>8.2474226804123703</v>
       </c>
       <c r="AU17" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>824.74226804123703</v>
       </c>
       <c r="AV17" s="13">
         <v>6.1855670103092786</v>
       </c>
       <c r="AW17" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>618.55670103092791</v>
       </c>
       <c r="AX17" s="13">
         <v>5.1546391752577314</v>
       </c>
       <c r="AY17" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>515.46391752577313</v>
       </c>
       <c r="AZ17" s="13">
         <v>6.5292096219931279</v>
       </c>
       <c r="BA17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>652.92096219931284</v>
       </c>
       <c r="BB17" s="13">
         <v>6.9873997709049256</v>
       </c>
       <c r="BC17" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>698.73997709049252</v>
       </c>
       <c r="BD17" s="13">
         <v>6.8728522336769764</v>
       </c>
       <c r="BE17" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>687.28522336769765</v>
       </c>
       <c r="BF17" s="13">
         <v>3.7800687285223367</v>
       </c>
       <c r="BG17" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>378.00687285223364</v>
       </c>
       <c r="BH17" s="13">
         <v>5.2691867124856815</v>
       </c>
       <c r="BI17" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>526.9186712485681</v>
       </c>
       <c r="BJ17" s="15">
         <v>8.2474226804123703</v>
       </c>
       <c r="BK17" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>824.74226804123703</v>
       </c>
     </row>
@@ -6880,210 +6934,210 @@
         <v>425</v>
       </c>
       <c r="E18" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>42500</v>
       </c>
       <c r="F18" s="13">
         <v>118.47575057736721</v>
       </c>
       <c r="G18" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11847.575057736722</v>
       </c>
       <c r="H18" s="13">
         <v>109.46882217090071</v>
       </c>
       <c r="I18" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10946.882217090071</v>
       </c>
       <c r="J18" s="13">
         <v>75.981524249422634</v>
       </c>
       <c r="K18" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7598.1524249422637</v>
       </c>
       <c r="L18" s="13">
         <v>111.08545034642032</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11108.545034642031</v>
       </c>
       <c r="N18" s="13">
         <v>39.260969976905315</v>
       </c>
       <c r="O18" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3926.0969976905317</v>
       </c>
       <c r="P18" s="13">
         <v>30.484988452655887</v>
       </c>
       <c r="Q18" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3048.4988452655889</v>
       </c>
       <c r="R18" s="13">
         <v>48.498845265588912</v>
       </c>
       <c r="S18" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4849.8845265588916</v>
       </c>
       <c r="T18" s="13">
         <v>36.489607390300236</v>
       </c>
       <c r="U18" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3648.9607390300234</v>
       </c>
       <c r="V18" s="13">
         <v>28.637413394919172</v>
       </c>
       <c r="W18" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2863.7413394919172</v>
       </c>
       <c r="X18" s="13">
         <v>63.741339491916861</v>
       </c>
       <c r="Y18" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6374.133949191686</v>
       </c>
       <c r="Z18" s="13">
         <v>39.722863741339495</v>
       </c>
       <c r="AA18" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3972.2863741339497</v>
       </c>
       <c r="AB18" s="13">
         <v>41.801385681293304</v>
       </c>
       <c r="AC18" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4180.1385681293305</v>
       </c>
       <c r="AD18" s="13">
         <v>34.64203233256351</v>
       </c>
       <c r="AE18" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3464.2032332563508</v>
       </c>
       <c r="AF18" s="13">
         <v>35.103926096997689</v>
       </c>
       <c r="AG18" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3510.3926096997689</v>
       </c>
       <c r="AH18" s="13">
         <v>30.946882217090071</v>
       </c>
       <c r="AI18" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3094.6882217090069</v>
       </c>
       <c r="AJ18" s="13">
         <v>61.200923787528872</v>
       </c>
       <c r="AK18" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6120.0923787528873</v>
       </c>
       <c r="AL18" s="13">
         <v>87.759815242494227</v>
       </c>
       <c r="AM18" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>8775.9815242494224</v>
       </c>
       <c r="AN18" s="13">
         <v>90.993071593533486</v>
       </c>
       <c r="AO18" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9099.3071593533477</v>
       </c>
       <c r="AP18" s="13">
         <v>52.193995381062351</v>
       </c>
       <c r="AQ18" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5219.399538106235</v>
       </c>
       <c r="AR18" s="13">
         <v>94.226327944572745</v>
       </c>
       <c r="AS18" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>9422.6327944572749</v>
       </c>
       <c r="AT18" s="13">
         <v>79.907621247113156</v>
       </c>
       <c r="AU18" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7990.7621247113157</v>
       </c>
       <c r="AV18" s="13">
         <v>53.11778290993071</v>
       </c>
       <c r="AW18" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5311.7782909930711</v>
       </c>
       <c r="AX18" s="13">
         <v>47.113163972286372</v>
       </c>
       <c r="AY18" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>4711.3163972286375</v>
       </c>
       <c r="AZ18" s="13">
         <v>54.041570438799077</v>
       </c>
       <c r="BA18" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5404.1570438799081</v>
       </c>
       <c r="BB18" s="13">
         <v>53.81062355658198</v>
       </c>
       <c r="BC18" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5381.0623556581977</v>
       </c>
       <c r="BD18" s="13">
         <v>48.036951501154732</v>
       </c>
       <c r="BE18" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>4803.6951501154736</v>
       </c>
       <c r="BF18" s="13">
         <v>40.184757505773675</v>
       </c>
       <c r="BG18" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4018.4757505773673</v>
       </c>
       <c r="BH18" s="13">
         <v>48.267898383371829</v>
       </c>
       <c r="BI18" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4826.789838337183</v>
       </c>
       <c r="BJ18" s="15">
         <v>63.279445727482674</v>
       </c>
       <c r="BK18" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>6327.9445727482671</v>
       </c>
     </row>
@@ -7102,210 +7156,210 @@
         <v>340</v>
       </c>
       <c r="E19" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>34000</v>
       </c>
       <c r="F19" s="13">
         <v>47.07646176911544</v>
       </c>
       <c r="G19" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4707.646176911544</v>
       </c>
       <c r="H19" s="13">
         <v>44.677661169415295</v>
       </c>
       <c r="I19" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4467.7661169415296</v>
       </c>
       <c r="J19" s="13">
         <v>31.784107946026985</v>
       </c>
       <c r="K19" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3178.4107946026984</v>
       </c>
       <c r="L19" s="13">
         <v>41.679160419790108</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4167.9160419790105</v>
       </c>
       <c r="N19" s="13">
         <v>17.241379310344829</v>
       </c>
       <c r="O19" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1724.137931034483</v>
       </c>
       <c r="P19" s="13">
         <v>14.54272863568216</v>
       </c>
       <c r="Q19" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1454.2728635682161</v>
       </c>
       <c r="R19" s="13">
         <v>20.989505247376311</v>
       </c>
       <c r="S19" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2098.950524737631</v>
       </c>
       <c r="T19" s="13">
         <v>14.09295352323838</v>
       </c>
       <c r="U19" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1409.295352323838</v>
       </c>
       <c r="V19" s="13">
         <v>14.69265367316342</v>
       </c>
       <c r="W19" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1469.265367316342</v>
       </c>
       <c r="X19" s="13">
         <v>29.085457271364319</v>
       </c>
       <c r="Y19" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2908.5457271364321</v>
       </c>
       <c r="Z19" s="13">
         <v>15.142428785607196</v>
       </c>
       <c r="AA19" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1514.2428785607196</v>
       </c>
       <c r="AB19" s="13">
         <v>17.241379310344829</v>
       </c>
       <c r="AC19" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1724.137931034483</v>
       </c>
       <c r="AD19" s="13">
         <v>14.54272863568216</v>
       </c>
       <c r="AE19" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1454.2728635682161</v>
       </c>
       <c r="AF19" s="13">
         <v>14.842578710644677</v>
       </c>
       <c r="AG19" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1484.2578710644677</v>
       </c>
       <c r="AH19" s="13">
         <v>13.643178410794601</v>
       </c>
       <c r="AI19" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1364.3178410794601</v>
       </c>
       <c r="AJ19" s="13">
         <v>29.38530734632684</v>
       </c>
       <c r="AK19" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2938.530734632684</v>
       </c>
       <c r="AL19" s="13">
         <v>40.779610194902546</v>
       </c>
       <c r="AM19" s="39">
+        <f t="shared" si="17"/>
+        <v>4077.9610194902543</v>
+      </c>
+      <c r="AN19" s="13">
+        <v>40.779610194902546</v>
+      </c>
+      <c r="AO19" s="39">
         <f t="shared" si="18"/>
         <v>4077.9610194902543</v>
       </c>
-      <c r="AN19" s="13">
-        <v>40.779610194902546</v>
-      </c>
-      <c r="AO19" s="39">
-        <f t="shared" si="19"/>
-        <v>4077.9610194902543</v>
-      </c>
       <c r="AP19" s="13">
         <v>18.590704647676162</v>
       </c>
       <c r="AQ19" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1859.0704647676162</v>
       </c>
       <c r="AR19" s="13">
         <v>38.08095952023988</v>
       </c>
       <c r="AS19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3808.095952023988</v>
       </c>
       <c r="AT19" s="13">
         <v>30.134932533733132</v>
       </c>
       <c r="AU19" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3013.4932533733131</v>
       </c>
       <c r="AV19" s="13">
         <v>22.938530734632685</v>
       </c>
       <c r="AW19" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2293.8530734632686</v>
       </c>
       <c r="AX19" s="13">
         <v>16.491754122938531</v>
       </c>
       <c r="AY19" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1649.175412293853</v>
       </c>
       <c r="AZ19" s="13">
         <v>19.640179910044978</v>
       </c>
       <c r="BA19" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1964.0179910044978</v>
       </c>
       <c r="BB19" s="13">
         <v>21.589205397301349</v>
       </c>
       <c r="BC19" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2158.9205397301348</v>
       </c>
       <c r="BD19" s="13">
         <v>16.34182908545727</v>
       </c>
       <c r="BE19" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1634.1829085457271</v>
       </c>
       <c r="BF19" s="13">
         <v>13.643178410794601</v>
       </c>
       <c r="BG19" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1364.3178410794601</v>
       </c>
       <c r="BH19" s="13">
         <v>17.541229385307346</v>
       </c>
       <c r="BI19" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1754.1229385307347</v>
       </c>
       <c r="BJ19" s="15">
         <v>26.236881559220386</v>
       </c>
       <c r="BK19" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2623.6881559220387</v>
       </c>
     </row>
@@ -7324,210 +7378,210 @@
         <v>307</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>30700</v>
       </c>
       <c r="F20" s="13">
         <v>36.739130434782609</v>
       </c>
       <c r="G20" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3673.913043478261</v>
       </c>
       <c r="H20" s="13">
         <v>37.826086956521735</v>
       </c>
       <c r="I20" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3782.6086956521735</v>
       </c>
       <c r="J20" s="13">
         <v>32.826086956521735</v>
       </c>
       <c r="K20" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3282.6086956521735</v>
       </c>
       <c r="L20" s="13">
         <v>41.739130434782609</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4173.913043478261</v>
       </c>
       <c r="N20" s="13">
         <v>13.478260869565217</v>
       </c>
       <c r="O20" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1347.8260869565217</v>
       </c>
       <c r="P20" s="13">
         <v>13.043478260869565</v>
       </c>
       <c r="Q20" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1304.3478260869565</v>
       </c>
       <c r="R20" s="13">
         <v>22.173913043478262</v>
       </c>
       <c r="S20" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2217.391304347826</v>
       </c>
       <c r="T20" s="13">
         <v>12.391304347826088</v>
       </c>
       <c r="U20" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1239.1304347826087</v>
       </c>
       <c r="V20" s="13">
         <v>9.7826086956521738</v>
       </c>
       <c r="W20" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>978.26086956521738</v>
       </c>
       <c r="X20" s="13">
         <v>15.65217391304348</v>
       </c>
       <c r="Y20" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1565.217391304348</v>
       </c>
       <c r="Z20" s="13">
         <v>13.043478260869565</v>
       </c>
       <c r="AA20" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1304.3478260869565</v>
       </c>
       <c r="AB20" s="13">
         <v>15.65217391304348</v>
       </c>
       <c r="AC20" s="39">
+        <f t="shared" si="12"/>
+        <v>1565.217391304348</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>15.65217391304348</v>
+      </c>
+      <c r="AE20" s="39">
         <f t="shared" si="13"/>
         <v>1565.217391304348</v>
       </c>
-      <c r="AD20" s="13">
-        <v>15.65217391304348</v>
-      </c>
-      <c r="AE20" s="39">
-        <f t="shared" si="14"/>
-        <v>1565.217391304348</v>
-      </c>
       <c r="AF20" s="13">
         <v>9.3478260869565215</v>
       </c>
       <c r="AG20" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>934.78260869565213</v>
       </c>
       <c r="AH20" s="13">
         <v>10.434782608695652</v>
       </c>
       <c r="AI20" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1043.4782608695652</v>
       </c>
       <c r="AJ20" s="13">
         <v>17.826086956521738</v>
       </c>
       <c r="AK20" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1782.6086956521738</v>
       </c>
       <c r="AL20" s="13">
         <v>37.173913043478265</v>
       </c>
       <c r="AM20" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3717.3913043478265</v>
       </c>
       <c r="AN20" s="13">
         <v>30.869565217391305</v>
       </c>
       <c r="AO20" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3086.9565217391305</v>
       </c>
       <c r="AP20" s="13">
         <v>18.043478260869566</v>
       </c>
       <c r="AQ20" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1804.3478260869567</v>
       </c>
       <c r="AR20" s="13">
         <v>44.130434782608695</v>
       </c>
       <c r="AS20" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>4413.04347826087</v>
       </c>
       <c r="AT20" s="13">
         <v>32.391304347826086</v>
       </c>
       <c r="AU20" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3239.1304347826085</v>
       </c>
       <c r="AV20" s="13">
         <v>24.782608695652176</v>
       </c>
       <c r="AW20" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2478.2608695652175</v>
       </c>
       <c r="AX20" s="13">
         <v>18.695652173913043</v>
       </c>
       <c r="AY20" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1869.5652173913043</v>
       </c>
       <c r="AZ20" s="13">
         <v>21.304347826086957</v>
       </c>
       <c r="BA20" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2130.4347826086955</v>
       </c>
       <c r="BB20" s="13">
         <v>21.521739130434785</v>
       </c>
       <c r="BC20" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2152.1739130434785</v>
       </c>
       <c r="BD20" s="13">
         <v>20.869565217391305</v>
       </c>
       <c r="BE20" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2086.9565217391305</v>
       </c>
       <c r="BF20" s="13">
         <v>15.869565217391305</v>
       </c>
       <c r="BG20" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1586.9565217391305</v>
       </c>
       <c r="BH20" s="13">
         <v>17.826086956521738</v>
       </c>
       <c r="BI20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1782.6086956521738</v>
       </c>
       <c r="BJ20" s="15">
         <v>21.739130434782609</v>
       </c>
       <c r="BK20" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2173.913043478261</v>
       </c>
     </row>
@@ -7546,210 +7600,210 @@
         <v>369</v>
       </c>
       <c r="E21" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>36900</v>
       </c>
       <c r="F21" s="13">
         <v>49.203187250996017</v>
       </c>
       <c r="G21" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4920.3187250996016</v>
       </c>
       <c r="H21" s="13">
         <v>33.665338645418323</v>
       </c>
       <c r="I21" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3366.5338645418324</v>
       </c>
       <c r="J21" s="13">
         <v>30.47808764940239</v>
       </c>
       <c r="K21" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3047.8087649402391</v>
       </c>
       <c r="L21" s="13">
         <v>36.254980079681275</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3625.4980079681272</v>
       </c>
       <c r="N21" s="13">
         <v>11.952191235059761</v>
       </c>
       <c r="O21" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1195.2191235059761</v>
       </c>
       <c r="P21" s="13">
         <v>9.1633466135458175</v>
       </c>
       <c r="Q21" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>916.33466135458173</v>
       </c>
       <c r="R21" s="13">
         <v>13.545816733067728</v>
       </c>
       <c r="S21" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1354.5816733067727</v>
       </c>
       <c r="T21" s="13">
         <v>9.760956175298805</v>
       </c>
       <c r="U21" s="39">
+        <f t="shared" si="8"/>
+        <v>976.09561752988054</v>
+      </c>
+      <c r="V21" s="13">
+        <v>9.760956175298805</v>
+      </c>
+      <c r="W21" s="39">
         <f t="shared" si="9"/>
         <v>976.09561752988054</v>
       </c>
-      <c r="V21" s="13">
-        <v>9.760956175298805</v>
-      </c>
-      <c r="W21" s="39">
-        <f t="shared" si="10"/>
-        <v>976.09561752988054</v>
-      </c>
       <c r="X21" s="13">
         <v>14.143426294820719</v>
       </c>
       <c r="Y21" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1414.342629482072</v>
       </c>
       <c r="Z21" s="13">
         <v>8.5657370517928282</v>
       </c>
       <c r="AA21" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>856.5737051792828</v>
       </c>
       <c r="AB21" s="13">
         <v>10.95617529880478</v>
       </c>
       <c r="AC21" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1095.6175298804781</v>
       </c>
       <c r="AD21" s="13">
         <v>12.350597609561753</v>
       </c>
       <c r="AE21" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1235.0597609561753</v>
       </c>
       <c r="AF21" s="13">
         <v>6.7729083665338639</v>
       </c>
       <c r="AG21" s="39">
+        <f t="shared" si="14"/>
+        <v>677.29083665338635</v>
+      </c>
+      <c r="AH21" s="13">
+        <v>6.7729083665338639</v>
+      </c>
+      <c r="AI21" s="39">
         <f t="shared" si="15"/>
         <v>677.29083665338635</v>
       </c>
-      <c r="AH21" s="13">
-        <v>6.7729083665338639</v>
-      </c>
-      <c r="AI21" s="39">
-        <f t="shared" si="16"/>
-        <v>677.29083665338635</v>
-      </c>
       <c r="AJ21" s="13">
         <v>17.131474103585656</v>
       </c>
       <c r="AK21" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1713.1474103585656</v>
       </c>
       <c r="AL21" s="13">
         <v>31.673306772908365</v>
       </c>
       <c r="AM21" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3167.3306772908363</v>
       </c>
       <c r="AN21" s="13">
         <v>35.458167330677291</v>
       </c>
       <c r="AO21" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3545.8167330677293</v>
       </c>
       <c r="AP21" s="13">
         <v>13.545816733067728</v>
       </c>
       <c r="AQ21" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1354.5816733067727</v>
       </c>
       <c r="AR21" s="13">
         <v>36.65338645418327</v>
       </c>
       <c r="AS21" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3665.3386454183269</v>
       </c>
       <c r="AT21" s="13">
         <v>24.701195219123505</v>
       </c>
       <c r="AU21" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2470.1195219123506</v>
       </c>
       <c r="AV21" s="13">
         <v>17.529880478087652</v>
       </c>
       <c r="AW21" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1752.9880478087653</v>
       </c>
       <c r="AX21" s="13">
         <v>16.932270916334659</v>
       </c>
       <c r="AY21" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1693.227091633466</v>
       </c>
       <c r="AZ21" s="13">
         <v>19.123505976095618</v>
       </c>
       <c r="BA21" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1912.3505976095619</v>
       </c>
       <c r="BB21" s="13">
         <v>18.127490039840637</v>
       </c>
       <c r="BC21" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1812.7490039840636</v>
       </c>
       <c r="BD21" s="13">
         <v>21.513944223107568</v>
       </c>
       <c r="BE21" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2151.3944223107569</v>
       </c>
       <c r="BF21" s="13">
         <v>13.346613545816732</v>
       </c>
       <c r="BG21" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1334.6613545816731</v>
       </c>
       <c r="BH21" s="13">
         <v>18.326693227091635</v>
       </c>
       <c r="BI21" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1832.6693227091635</v>
       </c>
       <c r="BJ21" s="15">
         <v>16.334661354581673</v>
       </c>
       <c r="BK21" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1633.4661354581674</v>
       </c>
     </row>
@@ -7768,210 +7822,210 @@
         <v>251</v>
       </c>
       <c r="E22" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>25100</v>
       </c>
       <c r="F22" s="13">
         <v>68.592057761732846</v>
       </c>
       <c r="G22" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6859.2057761732849</v>
       </c>
       <c r="H22" s="13">
         <v>51.263537906137181</v>
       </c>
       <c r="I22" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5126.353790613718</v>
       </c>
       <c r="J22" s="13">
         <v>49.819494584837543</v>
       </c>
       <c r="K22" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4981.9494584837539</v>
       </c>
       <c r="L22" s="13">
         <v>61.73285198555957</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6173.2851985559573</v>
       </c>
       <c r="N22" s="13">
         <v>19.133574007220215</v>
       </c>
       <c r="O22" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1913.3574007220216</v>
       </c>
       <c r="P22" s="13">
         <v>14.801444043321299</v>
       </c>
       <c r="Q22" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1480.1444043321299</v>
       </c>
       <c r="R22" s="13">
         <v>25.992779783393498</v>
       </c>
       <c r="S22" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2599.2779783393498</v>
       </c>
       <c r="T22" s="13">
         <v>15.884476534296029</v>
       </c>
       <c r="U22" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1588.447653429603</v>
       </c>
       <c r="V22" s="13">
         <v>16.60649819494585</v>
       </c>
       <c r="W22" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1660.649819494585</v>
       </c>
       <c r="X22" s="13">
         <v>42.238267148014444</v>
       </c>
       <c r="Y22" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4223.8267148014447</v>
       </c>
       <c r="Z22" s="13">
         <v>22.382671480144403</v>
       </c>
       <c r="AA22" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2238.2671480144404</v>
       </c>
       <c r="AB22" s="13">
         <v>23.826714801444044</v>
       </c>
       <c r="AC22" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2382.6714801444045</v>
       </c>
       <c r="AD22" s="13">
         <v>23.465703971119133</v>
       </c>
       <c r="AE22" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2346.5703971119133</v>
       </c>
       <c r="AF22" s="13">
         <v>13.357400722021662</v>
       </c>
       <c r="AG22" s="39">
+        <f t="shared" si="14"/>
+        <v>1335.7400722021662</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>13.357400722021662</v>
+      </c>
+      <c r="AI22" s="39">
         <f t="shared" si="15"/>
         <v>1335.7400722021662</v>
       </c>
-      <c r="AH22" s="13">
-        <v>13.357400722021662</v>
-      </c>
-      <c r="AI22" s="39">
-        <f t="shared" si="16"/>
-        <v>1335.7400722021662</v>
-      </c>
       <c r="AJ22" s="13">
         <v>25.63176895306859</v>
       </c>
       <c r="AK22" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2563.176895306859</v>
       </c>
       <c r="AL22" s="13">
         <v>45.487364620938628</v>
       </c>
       <c r="AM22" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4548.7364620938624</v>
       </c>
       <c r="AN22" s="13">
         <v>47.292418772563174</v>
       </c>
       <c r="AO22" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4729.2418772563178</v>
       </c>
       <c r="AP22" s="13">
         <v>20.216606498194945</v>
       </c>
       <c r="AQ22" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2021.6606498194944</v>
       </c>
       <c r="AR22" s="13">
         <v>49.097472924187727</v>
       </c>
       <c r="AS22" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>4909.7472924187723</v>
       </c>
       <c r="AT22" s="13">
         <v>43.321299638989167</v>
       </c>
       <c r="AU22" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4332.1299638989167</v>
       </c>
       <c r="AV22" s="13">
         <v>30.324909747292416</v>
       </c>
       <c r="AW22" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3032.4909747292418</v>
       </c>
       <c r="AX22" s="13">
         <v>31.40794223826715</v>
       </c>
       <c r="AY22" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3140.7942238267151</v>
       </c>
       <c r="AZ22" s="13">
         <v>28.158844765342963</v>
       </c>
       <c r="BA22" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2815.8844765342965</v>
       </c>
       <c r="BB22" s="13">
         <v>31.768953068592058</v>
       </c>
       <c r="BC22" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3176.8953068592059</v>
       </c>
       <c r="BD22" s="13">
         <v>31.40794223826715</v>
       </c>
       <c r="BE22" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3140.7942238267151</v>
       </c>
       <c r="BF22" s="13">
         <v>26.714801444043324</v>
       </c>
       <c r="BG22" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2671.4801444043323</v>
       </c>
       <c r="BH22" s="13">
         <v>27.075812274368232</v>
       </c>
       <c r="BI22" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2707.5812274368232</v>
       </c>
       <c r="BJ22" s="15">
         <v>27.075812274368232</v>
       </c>
       <c r="BK22" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2707.5812274368232</v>
       </c>
     </row>
@@ -7990,210 +8044,210 @@
         <v>488</v>
       </c>
       <c r="E23" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>48800</v>
       </c>
       <c r="F23" s="13">
         <v>67.452830188679243</v>
       </c>
       <c r="G23" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6745.2830188679245</v>
       </c>
       <c r="H23" s="13">
         <v>69.811320754716974</v>
       </c>
       <c r="I23" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6981.1320754716971</v>
       </c>
       <c r="J23" s="13">
         <v>46.226415094339622</v>
       </c>
       <c r="K23" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4622.6415094339618</v>
       </c>
       <c r="L23" s="13">
         <v>65.566037735849065</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6556.6037735849068</v>
       </c>
       <c r="N23" s="13">
         <v>31.367924528301888</v>
       </c>
       <c r="O23" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3136.7924528301887</v>
       </c>
       <c r="P23" s="13">
         <v>16.509433962264151</v>
       </c>
       <c r="Q23" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1650.943396226415</v>
       </c>
       <c r="R23" s="13">
         <v>22.641509433962266</v>
       </c>
       <c r="S23" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2264.1509433962265</v>
       </c>
       <c r="T23" s="13">
         <v>16.273584905660378</v>
       </c>
       <c r="U23" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1627.3584905660377</v>
       </c>
       <c r="V23" s="13">
         <v>16.037735849056602</v>
       </c>
       <c r="W23" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1603.7735849056603</v>
       </c>
       <c r="X23" s="13">
         <v>46.698113207547173</v>
       </c>
       <c r="Y23" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4669.8113207547176</v>
       </c>
       <c r="Z23" s="13">
         <v>23.349056603773587</v>
       </c>
       <c r="AA23" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2334.9056603773588</v>
       </c>
       <c r="AB23" s="13">
         <v>20.283018867924529</v>
       </c>
       <c r="AC23" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2028.3018867924529</v>
       </c>
       <c r="AD23" s="13">
         <v>22.169811320754718</v>
       </c>
       <c r="AE23" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2216.9811320754716</v>
       </c>
       <c r="AF23" s="13">
         <v>15.566037735849056</v>
       </c>
       <c r="AG23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1556.6037735849056</v>
       </c>
       <c r="AH23" s="13">
         <v>20.990566037735849</v>
       </c>
       <c r="AI23" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2099.0566037735848</v>
       </c>
       <c r="AJ23" s="13">
         <v>34.433962264150942</v>
       </c>
       <c r="AK23" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3443.3962264150941</v>
       </c>
       <c r="AL23" s="13">
         <v>52.594339622641506</v>
       </c>
       <c r="AM23" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5259.433962264151</v>
       </c>
       <c r="AN23" s="13">
         <v>52.358490566037744</v>
       </c>
       <c r="AO23" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5235.8490566037744</v>
       </c>
       <c r="AP23" s="13">
         <v>18.39622641509434</v>
       </c>
       <c r="AQ23" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1839.6226415094341</v>
       </c>
       <c r="AR23" s="13">
         <v>53.066037735849058</v>
       </c>
       <c r="AS23" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5306.6037735849059</v>
       </c>
       <c r="AT23" s="13">
         <v>45.283018867924532</v>
       </c>
       <c r="AU23" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4528.3018867924529</v>
       </c>
       <c r="AV23" s="13">
         <v>33.726415094339622</v>
       </c>
       <c r="AW23" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3372.6415094339623</v>
       </c>
       <c r="AX23" s="13">
         <v>24.29245283018868</v>
       </c>
       <c r="AY23" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2429.2452830188681</v>
       </c>
       <c r="AZ23" s="13">
         <v>29.952830188679247</v>
       </c>
       <c r="BA23" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2995.2830188679245</v>
       </c>
       <c r="BB23" s="13">
         <v>33.018867924528301</v>
       </c>
       <c r="BC23" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3301.8867924528299</v>
       </c>
       <c r="BD23" s="13">
         <v>25.707547169811324</v>
       </c>
       <c r="BE23" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2570.7547169811323</v>
       </c>
       <c r="BF23" s="13">
         <v>23.113207547169811</v>
       </c>
       <c r="BG23" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2311.3207547169809</v>
       </c>
       <c r="BH23" s="13">
         <v>26.650943396226417</v>
       </c>
       <c r="BI23" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2665.0943396226417</v>
       </c>
       <c r="BJ23" s="15">
         <v>29.952830188679247</v>
       </c>
       <c r="BK23" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2995.2830188679245</v>
       </c>
     </row>
@@ -8212,210 +8266,210 @@
         <v>278</v>
       </c>
       <c r="E24" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>27800</v>
       </c>
       <c r="F24" s="13">
         <v>96.491228070175438</v>
       </c>
       <c r="G24" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9649.1228070175439</v>
       </c>
       <c r="H24" s="13">
         <v>85.964912280701753</v>
       </c>
       <c r="I24" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8596.4912280701756</v>
       </c>
       <c r="J24" s="13">
         <v>61.403508771929829</v>
       </c>
       <c r="K24" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6140.3508771929828</v>
       </c>
       <c r="L24" s="13">
         <v>94.152046783625735</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9415.2046783625738</v>
       </c>
       <c r="N24" s="13">
         <v>28.654970760233915</v>
       </c>
       <c r="O24" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2865.4970760233914</v>
       </c>
       <c r="P24" s="13">
         <v>22.222222222222221</v>
       </c>
       <c r="Q24" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2222.2222222222222</v>
       </c>
       <c r="R24" s="13">
         <v>26.900584795321635</v>
       </c>
       <c r="S24" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2690.0584795321633</v>
       </c>
       <c r="T24" s="13">
         <v>17.543859649122805</v>
       </c>
       <c r="U24" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1754.3859649122805</v>
       </c>
       <c r="V24" s="13">
         <v>12.865497076023392</v>
       </c>
       <c r="W24" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1286.5497076023391</v>
       </c>
       <c r="X24" s="13">
         <v>70.760233918128662</v>
       </c>
       <c r="Y24" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7076.0233918128661</v>
       </c>
       <c r="Z24" s="13">
         <v>46.783625730994146</v>
       </c>
       <c r="AA24" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4678.3625730994145</v>
       </c>
       <c r="AB24" s="13">
         <v>16.959064327485379</v>
       </c>
       <c r="AC24" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1695.906432748538</v>
       </c>
       <c r="AD24" s="13">
         <v>32.748538011695906</v>
       </c>
       <c r="AE24" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3274.8538011695905</v>
       </c>
       <c r="AF24" s="13">
         <v>36.257309941520468</v>
       </c>
       <c r="AG24" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3625.7309941520466</v>
       </c>
       <c r="AH24" s="13">
         <v>22.807017543859647</v>
       </c>
       <c r="AI24" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2280.7017543859647</v>
       </c>
       <c r="AJ24" s="13">
         <v>52.046783625730995</v>
       </c>
       <c r="AK24" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5204.6783625730995</v>
       </c>
       <c r="AL24" s="13">
         <v>56.725146198830409</v>
       </c>
       <c r="AM24" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5672.5146198830407</v>
       </c>
       <c r="AN24" s="13">
         <v>74.269005847953224</v>
       </c>
       <c r="AO24" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7426.9005847953222</v>
       </c>
       <c r="AP24" s="13">
         <v>25.730994152046783</v>
       </c>
       <c r="AQ24" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2573.0994152046783</v>
       </c>
       <c r="AR24" s="13">
         <v>61.988304093567251</v>
       </c>
       <c r="AS24" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6198.8304093567249</v>
       </c>
       <c r="AT24" s="13">
         <v>60.23391812865497</v>
       </c>
       <c r="AU24" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>6023.3918128654968</v>
       </c>
       <c r="AV24" s="13">
         <v>46.783625730994146</v>
       </c>
       <c r="AW24" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4678.3625730994145</v>
       </c>
       <c r="AX24" s="13">
         <v>29.239766081871345</v>
       </c>
       <c r="AY24" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2923.9766081871344</v>
       </c>
       <c r="AZ24" s="13">
         <v>37.42690058479532</v>
       </c>
       <c r="BA24" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3742.6900584795321</v>
       </c>
       <c r="BB24" s="13">
         <v>39.1812865497076</v>
       </c>
       <c r="BC24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3918.1286549707602</v>
       </c>
       <c r="BD24" s="13">
         <v>35.087719298245609</v>
       </c>
       <c r="BE24" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3508.7719298245611</v>
       </c>
       <c r="BF24" s="13">
         <v>30.409356725146196</v>
       </c>
       <c r="BG24" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3040.9356725146195</v>
       </c>
       <c r="BH24" s="13">
         <v>33.333333333333329</v>
       </c>
       <c r="BI24" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3333.333333333333</v>
       </c>
       <c r="BJ24" s="15">
         <v>30.994152046783626</v>
       </c>
       <c r="BK24" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3099.4152046783624</v>
       </c>
     </row>
@@ -8434,210 +8488,210 @@
         <v>200</v>
       </c>
       <c r="E25" s="38">
-        <f t="shared" si="1"/>
+        <f>D25*100</f>
         <v>20000</v>
       </c>
       <c r="F25" s="18">
         <v>93.913043478260875</v>
       </c>
       <c r="G25" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9391.3043478260879</v>
       </c>
       <c r="H25" s="18">
         <v>80.869565217391298</v>
       </c>
       <c r="I25" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8086.95652173913</v>
       </c>
       <c r="J25" s="18">
         <v>58.260869565217391</v>
       </c>
       <c r="K25" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5826.086956521739</v>
       </c>
       <c r="L25" s="18">
         <v>80.869565217391298</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8086.95652173913</v>
       </c>
       <c r="N25" s="18">
         <v>18.260869565217391</v>
       </c>
       <c r="O25" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1826.086956521739</v>
       </c>
       <c r="P25" s="18">
         <v>20.869565217391305</v>
       </c>
       <c r="Q25" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2086.9565217391305</v>
       </c>
       <c r="R25" s="18">
         <v>26.086956521739129</v>
       </c>
       <c r="S25" s="39">
+        <f t="shared" si="7"/>
+        <v>2608.695652173913</v>
+      </c>
+      <c r="T25" s="18">
+        <v>26.086956521739129</v>
+      </c>
+      <c r="U25" s="39">
         <f t="shared" si="8"/>
         <v>2608.695652173913</v>
       </c>
-      <c r="T25" s="18">
-        <v>26.086956521739129</v>
-      </c>
-      <c r="U25" s="39">
-        <f t="shared" si="9"/>
-        <v>2608.695652173913</v>
-      </c>
       <c r="V25" s="18">
         <v>16.521739130434781</v>
       </c>
       <c r="W25" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1652.173913043478</v>
       </c>
       <c r="X25" s="18">
         <v>44.347826086956523</v>
       </c>
       <c r="Y25" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4434.782608695652</v>
       </c>
       <c r="Z25" s="18">
         <v>25.217391304347824</v>
       </c>
       <c r="AA25" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2521.7391304347825</v>
       </c>
       <c r="AB25" s="18">
         <v>13.913043478260869</v>
       </c>
       <c r="AC25" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1391.304347826087</v>
       </c>
       <c r="AD25" s="18">
         <v>21.739130434782609</v>
       </c>
       <c r="AE25" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2173.913043478261</v>
       </c>
       <c r="AF25" s="18">
         <v>18.260869565217391</v>
       </c>
       <c r="AG25" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1826.086956521739</v>
       </c>
       <c r="AH25" s="18">
         <v>16.521739130434781</v>
       </c>
       <c r="AI25" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1652.173913043478</v>
       </c>
       <c r="AJ25" s="18">
         <v>40.869565217391305</v>
       </c>
       <c r="AK25" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4086.9565217391305</v>
       </c>
       <c r="AL25" s="18">
         <v>45.217391304347828</v>
       </c>
       <c r="AM25" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4521.739130434783</v>
       </c>
       <c r="AN25" s="18">
         <v>64.347826086956516</v>
       </c>
       <c r="AO25" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6434.782608695652</v>
       </c>
       <c r="AP25" s="18">
         <v>30.434782608695656</v>
       </c>
       <c r="AQ25" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3043.4782608695655</v>
       </c>
       <c r="AR25" s="18">
         <v>68.695652173913047</v>
       </c>
       <c r="AS25" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6869.5652173913049</v>
       </c>
       <c r="AT25" s="18">
         <v>70.434782608695656</v>
       </c>
       <c r="AU25" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7043.4782608695659</v>
       </c>
       <c r="AV25" s="18">
         <v>29.565217391304348</v>
       </c>
       <c r="AW25" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2956.521739130435</v>
       </c>
       <c r="AX25" s="18">
         <v>35.652173913043477</v>
       </c>
       <c r="AY25" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3565.2173913043475</v>
       </c>
       <c r="AZ25" s="18">
         <v>27.826086956521738</v>
       </c>
       <c r="BA25" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2782.608695652174</v>
       </c>
       <c r="BB25" s="18">
         <v>33.913043478260867</v>
       </c>
       <c r="BC25" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3391.3043478260865</v>
       </c>
       <c r="BD25" s="18">
         <v>30.434782608695656</v>
       </c>
       <c r="BE25" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3043.4782608695655</v>
       </c>
       <c r="BF25" s="18">
         <v>28.695652173913043</v>
       </c>
       <c r="BG25" s="39">
+        <f t="shared" si="27"/>
+        <v>2869.5652173913045</v>
+      </c>
+      <c r="BH25" s="18">
+        <v>28.695652173913043</v>
+      </c>
+      <c r="BI25" s="56">
         <f t="shared" si="28"/>
         <v>2869.5652173913045</v>
       </c>
-      <c r="BH25" s="18">
-        <v>28.695652173913043</v>
-      </c>
-      <c r="BI25" s="56">
-        <f t="shared" si="29"/>
-        <v>2869.5652173913045</v>
-      </c>
       <c r="BJ25" s="19">
         <v>23.478260869565219</v>
       </c>
       <c r="BK25" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2347.826086956522</v>
       </c>
     </row>
@@ -8653,11 +8707,368 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3289AB-28A8-4606-ACF2-CA2139D225BF}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
+        <v>63.741339491916861</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>29.085457271364319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>15.65217391304348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>14.143426294820719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>42.238267148014444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>46.698113207547173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>70.760233918128662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>44.347826086956523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBDF80D-8D5B-4A5C-BE2C-816447FA40CE}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
+        <v>42156</v>
+      </c>
+      <c r="B18" s="38">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>42370</v>
+      </c>
+      <c r="E18" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>42186</v>
+      </c>
+      <c r="B19" s="12">
+        <v>12</v>
+      </c>
+      <c r="D19" s="14">
+        <v>42401</v>
+      </c>
+      <c r="E19" s="12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>42217</v>
+      </c>
+      <c r="B20" s="12">
+        <v>42</v>
+      </c>
+      <c r="D20" s="14">
+        <v>42430</v>
+      </c>
+      <c r="E20" s="12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>42248</v>
+      </c>
+      <c r="B21" s="12">
+        <v>47</v>
+      </c>
+      <c r="D21" s="14">
+        <v>42461</v>
+      </c>
+      <c r="E21" s="12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>42278</v>
+      </c>
+      <c r="B22" s="12">
+        <v>107</v>
+      </c>
+      <c r="D22" s="14">
+        <v>42491</v>
+      </c>
+      <c r="E22" s="12">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>42309</v>
+      </c>
+      <c r="B23" s="12">
+        <v>156</v>
+      </c>
+      <c r="D23" s="14">
+        <v>42522</v>
+      </c>
+      <c r="E23" s="12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>42339</v>
+      </c>
+      <c r="B24" s="12">
+        <v>230</v>
+      </c>
+      <c r="D24" s="14">
+        <v>42552</v>
+      </c>
+      <c r="E24" s="12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="14">
+        <v>42583</v>
+      </c>
+      <c r="E25" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="14">
+        <v>42614</v>
+      </c>
+      <c r="E26" s="12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="14">
+        <v>42644</v>
+      </c>
+      <c r="E27" s="12">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="14">
+        <v>42675</v>
+      </c>
+      <c r="E28" s="12">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="14">
+        <v>42705</v>
+      </c>
+      <c r="E29" s="12">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="14">
+        <v>42736</v>
+      </c>
+      <c r="E30" s="12">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="14">
+        <v>42767</v>
+      </c>
+      <c r="E31" s="12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="14">
+        <v>42795</v>
+      </c>
+      <c r="E32" s="12">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="14">
+        <v>42826</v>
+      </c>
+      <c r="E33" s="12">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="16">
+        <v>42856</v>
+      </c>
+      <c r="E34" s="17">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9797,7 +10208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -10830,12 +11241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
